--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -11,9 +11,11 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$165</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="568">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1584,20 +1586,27 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">125
-128
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">126
+127
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">128
 133
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126
-127</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -1898,7 +1907,7 @@
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
     <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1947,6 +1956,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1963,8 +1977,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1982,7 +1996,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2041,7 +2055,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2146,6 +2160,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2196,7 +2214,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2214,7 +2232,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2240,56 +2258,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO165"/>
+  <dimension ref="A1:AO65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5101214574899"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="64.9068825910931"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="65.9838056680162"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13511,7 +13528,7 @@
       <c r="AK139" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="AL139" s="12" t="s">
+      <c r="AL139" s="26" t="s">
         <v>478</v>
       </c>
       <c r="AM139" s="6" t="n">
@@ -13520,7 +13537,7 @@
     </row>
     <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>39</v>
@@ -13539,20 +13556,30 @@
         <v>480</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
+      <c r="J140" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="10"/>
+      <c r="M140" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N140" s="10" t="s">
+        <v>482</v>
+      </c>
       <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
+      <c r="P140" s="10" t="s">
+        <v>482</v>
+      </c>
       <c r="Q140" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="R140" s="6"/>
+      <c r="R140" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
@@ -13560,7 +13587,9 @@
       <c r="W140" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="X140" s="6"/>
+      <c r="X140" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
       <c r="AA140" s="6"/>
@@ -13569,10 +13598,10 @@
         <v>85</v>
       </c>
       <c r="AD140" s="6" t="s">
-        <v>96</v>
+        <v>477</v>
       </c>
       <c r="AE140" s="8"/>
-      <c r="AF140" s="25"/>
+      <c r="AF140" s="6"/>
       <c r="AG140" s="6"/>
       <c r="AH140" s="6" t="s">
         <v>471</v>
@@ -13584,18 +13613,16 @@
         <v>3</v>
       </c>
       <c r="AK140" s="6" t="n">
-        <v>125</v>
-      </c>
-      <c r="AL140" s="12" t="s">
-        <v>481</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AL140" s="6"/>
       <c r="AM140" s="6" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>39</v>
@@ -13608,35 +13635,35 @@
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>311</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O141" s="10"/>
       <c r="P141" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
@@ -13668,19 +13695,19 @@
         <v>457</v>
       </c>
       <c r="AJ141" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK141" s="6" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL141" s="6"/>
       <c r="AM141" s="6" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>39</v>
@@ -13699,30 +13726,22 @@
         <v>489</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
-      <c r="M142" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="N142" s="10" t="s">
-        <v>485</v>
-      </c>
+      <c r="M142" s="6"/>
+      <c r="N142" s="10"/>
       <c r="O142" s="10"/>
-      <c r="P142" s="10" t="s">
-        <v>485</v>
-      </c>
+      <c r="P142" s="10"/>
       <c r="Q142" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R142" s="6" t="s">
-        <v>486</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="R142" s="6"/>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
@@ -13730,9 +13749,7 @@
       <c r="W142" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="X142" s="6" t="s">
-        <v>490</v>
-      </c>
+      <c r="X142" s="6"/>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
@@ -13753,19 +13770,21 @@
         <v>457</v>
       </c>
       <c r="AJ142" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK142" s="6" t="n">
-        <v>127</v>
-      </c>
-      <c r="AL142" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="AL142" s="12" t="s">
+        <v>490</v>
+      </c>
       <c r="AM142" s="6" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>39</v>
@@ -13784,22 +13803,30 @@
         <v>492</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="10"/>
+      <c r="M143" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N143" s="10" t="s">
+        <v>482</v>
+      </c>
       <c r="O143" s="10"/>
-      <c r="P143" s="10"/>
+      <c r="P143" s="10" t="s">
+        <v>482</v>
+      </c>
       <c r="Q143" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="R143" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="R143" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="S143" s="6"/>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
@@ -13811,12 +13838,14 @@
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
-      <c r="AB143" s="6"/>
+      <c r="AB143" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="AC143" s="6" t="s">
         <v>85</v>
       </c>
       <c r="AD143" s="6" t="s">
-        <v>477</v>
+        <v>96</v>
       </c>
       <c r="AE143" s="8"/>
       <c r="AF143" s="6"/>
@@ -13828,21 +13857,19 @@
         <v>457</v>
       </c>
       <c r="AJ143" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK143" s="6" t="n">
-        <v>128</v>
-      </c>
-      <c r="AL143" s="12" t="s">
-        <v>493</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AL143" s="6"/>
       <c r="AM143" s="6" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>39</v>
@@ -13855,10 +13882,10 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="G144" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>90</v>
@@ -13870,20 +13897,20 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="O144" s="10"/>
       <c r="P144" s="10" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R144" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="S144" s="6"/>
       <c r="T144" s="6"/>
@@ -13918,7 +13945,7 @@
         <v>4</v>
       </c>
       <c r="AK144" s="6" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL144" s="6"/>
       <c r="AM144" s="6" t="n">
@@ -13927,7 +13954,7 @@
     </row>
     <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>39</v>
@@ -13940,35 +13967,33 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>90</v>
+        <v>498</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>499</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
-        <v>498</v>
+        <v>312</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="O145" s="10"/>
-      <c r="P145" s="10" t="s">
-        <v>499</v>
-      </c>
+      <c r="P145" s="10"/>
       <c r="Q145" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R145" s="6" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
@@ -13981,9 +14006,7 @@
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
-      <c r="AB145" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="AB145" s="6"/>
       <c r="AC145" s="6" t="s">
         <v>85</v>
       </c>
@@ -14000,19 +14023,19 @@
         <v>457</v>
       </c>
       <c r="AJ145" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK145" s="6" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL145" s="6"/>
       <c r="AM145" s="6" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>39</v>
@@ -14023,33 +14046,29 @@
       <c r="D146" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6" t="s">
+      <c r="E146" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F146" s="13" t="s">
         <v>500</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H146" s="24" t="s">
+      <c r="H146" s="6" t="s">
         <v>502</v>
       </c>
       <c r="I146" s="6"/>
-      <c r="J146" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
-      <c r="M146" s="6" t="s">
-        <v>312</v>
-      </c>
+      <c r="M146" s="6"/>
       <c r="N146" s="10" t="s">
         <v>460</v>
       </c>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q146" s="6"/>
       <c r="R146" s="6" t="s">
         <v>461</v>
       </c>
@@ -14062,16 +14081,18 @@
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="6"/>
-      <c r="Z146" s="6"/>
+      <c r="Z146" s="14"/>
       <c r="AA146" s="6"/>
       <c r="AB146" s="6"/>
       <c r="AC146" s="6" t="s">
         <v>85</v>
       </c>
       <c r="AD146" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE146" s="8"/>
+        <v>316</v>
+      </c>
+      <c r="AE146" s="8" t="n">
+        <v>0.025</v>
+      </c>
       <c r="AF146" s="6"/>
       <c r="AG146" s="6"/>
       <c r="AH146" s="6" t="s">
@@ -14081,19 +14102,19 @@
         <v>457</v>
       </c>
       <c r="AJ146" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK146" s="6" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL146" s="6"/>
       <c r="AM146" s="6" t="n">
-        <v>124</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>39</v>
@@ -14102,40 +14123,40 @@
         <v>40</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E147" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E147" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="F147" s="13" t="s">
+      <c r="F147" s="6" t="s">
         <v>503</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>504</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="J147" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
-      <c r="N147" s="10" t="s">
-        <v>460</v>
-      </c>
+      <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6" t="s">
-        <v>461</v>
-      </c>
+      <c r="Q147" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R147" s="6"/>
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
       <c r="W147" s="6" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="6"/>
@@ -14149,30 +14170,28 @@
         <v>316</v>
       </c>
       <c r="AE147" s="8" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="AF147" s="6"/>
       <c r="AG147" s="6"/>
-      <c r="AH147" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="AI147" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="AH147" s="6"/>
+      <c r="AI147" s="6"/>
       <c r="AJ147" s="6" t="n">
         <v>2</v>
       </c>
       <c r="AK147" s="6" t="n">
-        <v>133</v>
-      </c>
-      <c r="AL147" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="AL147" s="6" t="n">
+        <v>135</v>
+      </c>
       <c r="AM147" s="6" t="n">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>39</v>
@@ -14183,38 +14202,46 @@
       <c r="D148" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="27" t="s">
         <v>317</v>
       </c>
       <c r="F148" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="H148" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K148" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K148" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="10"/>
+      <c r="M148" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="N148" s="10" t="s">
+        <v>460</v>
+      </c>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
       <c r="Q148" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="R148" s="6"/>
+      <c r="R148" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
       <c r="W148" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
@@ -14225,31 +14252,29 @@
         <v>85</v>
       </c>
       <c r="AD148" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE148" s="8" t="n">
-        <v>0.03</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="AE148" s="8"/>
       <c r="AF148" s="6"/>
       <c r="AG148" s="6"/>
-      <c r="AH148" s="6"/>
+      <c r="AH148" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="AI148" s="6"/>
       <c r="AJ148" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK148" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="AL148" s="6"/>
+      <c r="AM148" s="6" t="n">
         <v>134</v>
-      </c>
-      <c r="AL148" s="6" t="n">
-        <v>135</v>
-      </c>
-      <c r="AM148" s="6" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>39</v>
@@ -14260,47 +14285,33 @@
       <c r="D149" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="6" t="s">
         <v>317</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>510</v>
+        <v>84</v>
       </c>
       <c r="I149" s="6"/>
-      <c r="J149" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K149" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="N149" s="10" t="s">
-        <v>460</v>
-      </c>
+      <c r="M149" s="6"/>
+      <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R149" s="6" t="s">
-        <v>461</v>
-      </c>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
-      <c r="W149" s="6" t="s">
-        <v>506</v>
-      </c>
+      <c r="W149" s="6"/>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
       <c r="Z149" s="14"/>
@@ -14310,29 +14321,29 @@
         <v>85</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>511</v>
+        <v>86</v>
       </c>
       <c r="AE149" s="8"/>
       <c r="AF149" s="6"/>
       <c r="AG149" s="6"/>
-      <c r="AH149" s="6" t="s">
-        <v>512</v>
-      </c>
+      <c r="AH149" s="6"/>
       <c r="AI149" s="6"/>
       <c r="AJ149" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK149" s="6" t="n">
-        <v>135</v>
-      </c>
-      <c r="AL149" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="AL149" s="12" t="s">
+        <v>512</v>
+      </c>
       <c r="AM149" s="6" t="n">
-        <v>134</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>39</v>
@@ -14353,24 +14364,34 @@
         <v>514</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="J150" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
-      <c r="N150" s="10"/>
+      <c r="N150" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
+      <c r="Q150" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R150" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="S150" s="6"/>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
       <c r="W150" s="6"/>
-      <c r="X150" s="6"/>
+      <c r="X150" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="Y150" s="6"/>
       <c r="Z150" s="14"/>
       <c r="AA150" s="6"/>
@@ -14379,29 +14400,29 @@
         <v>85</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE150" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="AE150" s="8" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AF150" s="6"/>
       <c r="AG150" s="6"/>
       <c r="AH150" s="6"/>
       <c r="AI150" s="6"/>
       <c r="AJ150" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK150" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="AL150" s="6"/>
+      <c r="AM150" s="6" t="n">
         <v>136</v>
-      </c>
-      <c r="AL150" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="AM150" s="6" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>39</v>
@@ -14416,13 +14437,13 @@
         <v>317</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6" t="n">
@@ -14471,7 +14492,7 @@
         <v>3</v>
       </c>
       <c r="AK151" s="6" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL151" s="6"/>
       <c r="AM151" s="6" t="n">
@@ -14480,7 +14501,7 @@
     </row>
     <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>39</v>
@@ -14488,9 +14509,7 @@
       <c r="C152" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
         <v>317</v>
       </c>
@@ -14501,7 +14520,7 @@
         <v>521</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6" t="n">
@@ -14550,7 +14569,7 @@
         <v>3</v>
       </c>
       <c r="AK152" s="6" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL152" s="6"/>
       <c r="AM152" s="6" t="n">
@@ -14559,7 +14578,7 @@
     </row>
     <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>39</v>
@@ -14578,7 +14597,7 @@
         <v>524</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6" t="n">
@@ -14627,7 +14646,7 @@
         <v>3</v>
       </c>
       <c r="AK153" s="6" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL153" s="6"/>
       <c r="AM153" s="6" t="n">
@@ -14636,7 +14655,7 @@
     </row>
     <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>39</v>
@@ -14644,76 +14663,64 @@
       <c r="C154" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F154" s="6" t="s">
+      <c r="D154" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="G154" s="6" t="s">
+      <c r="E154" s="27" t="s">
         <v>527</v>
       </c>
+      <c r="F154" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>529</v>
+      </c>
       <c r="H154" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
-      <c r="N154" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="O154" s="10"/>
-      <c r="P154" s="10"/>
-      <c r="Q154" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R154" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="S154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6" t="s">
+        <v>532</v>
+      </c>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
-      <c r="X154" s="6" t="s">
-        <v>528</v>
-      </c>
+      <c r="X154" s="6"/>
       <c r="Y154" s="6"/>
-      <c r="Z154" s="14"/>
+      <c r="Z154" s="6"/>
       <c r="AA154" s="6"/>
       <c r="AB154" s="6"/>
-      <c r="AC154" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD154" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE154" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF154" s="6"/>
+      <c r="AC154" s="6"/>
+      <c r="AD154" s="6"/>
+      <c r="AE154" s="8"/>
+      <c r="AF154" s="28"/>
       <c r="AG154" s="6"/>
       <c r="AH154" s="6"/>
       <c r="AI154" s="6"/>
-      <c r="AJ154" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AJ154" s="6"/>
       <c r="AK154" s="6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL154" s="6"/>
-      <c r="AM154" s="6" t="n">
-        <v>136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AL154" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="AM154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>39</v>
@@ -14722,22 +14729,22 @@
         <v>40</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E155" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="H155" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F155" s="26" t="s">
+      <c r="I155" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="G155" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
@@ -14749,7 +14756,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
@@ -14763,22 +14770,22 @@
       <c r="AC155" s="6"/>
       <c r="AD155" s="6"/>
       <c r="AE155" s="8"/>
-      <c r="AF155" s="27"/>
+      <c r="AF155" s="28"/>
       <c r="AG155" s="6"/>
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
       <c r="AJ155" s="6"/>
       <c r="AK155" s="6" t="n">
-        <v>141</v>
-      </c>
-      <c r="AL155" s="6" t="n">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="AL155" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="AM155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>39</v>
@@ -14787,34 +14794,36 @@
         <v>40</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="F156" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E156" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="G156" s="15" t="s">
+      <c r="F156" s="27" t="s">
         <v>538</v>
       </c>
+      <c r="G156" s="27" t="s">
+        <v>510</v>
+      </c>
       <c r="H156" s="6" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
+      <c r="N156" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
@@ -14828,22 +14837,20 @@
       <c r="AC156" s="6"/>
       <c r="AD156" s="6"/>
       <c r="AE156" s="8"/>
-      <c r="AF156" s="27"/>
+      <c r="AF156" s="28"/>
       <c r="AG156" s="6"/>
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
       <c r="AJ156" s="6"/>
       <c r="AK156" s="6" t="n">
-        <v>142</v>
-      </c>
-      <c r="AL156" s="12" t="s">
-        <v>539</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AL156" s="6"/>
       <c r="AM156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>39</v>
@@ -14852,36 +14859,34 @@
         <v>40</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="F157" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="G157" s="26" t="s">
-        <v>513</v>
+        <v>526</v>
+      </c>
+      <c r="E157" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="F157" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="G157" s="27" t="s">
+        <v>544</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
-      <c r="N157" s="12" t="s">
-        <v>544</v>
-      </c>
+      <c r="N157" s="6"/>
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
@@ -14895,20 +14900,20 @@
       <c r="AC157" s="6"/>
       <c r="AD157" s="6"/>
       <c r="AE157" s="8"/>
-      <c r="AF157" s="27"/>
+      <c r="AF157" s="28"/>
       <c r="AG157" s="6"/>
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
       <c r="AJ157" s="6"/>
       <c r="AK157" s="6" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL157" s="6"/>
       <c r="AM157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>39</v>
@@ -14917,22 +14922,22 @@
         <v>40</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="F158" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="E158" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I158" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="G158" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>549</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
@@ -14944,7 +14949,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
@@ -14958,20 +14963,22 @@
       <c r="AC158" s="6"/>
       <c r="AD158" s="6"/>
       <c r="AE158" s="8"/>
-      <c r="AF158" s="27"/>
+      <c r="AF158" s="28"/>
       <c r="AG158" s="6"/>
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
       <c r="AJ158" s="6"/>
       <c r="AK158" s="6" t="n">
-        <v>146</v>
-      </c>
-      <c r="AL158" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="AL158" s="6" t="n">
+        <v>134</v>
+      </c>
       <c r="AM158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>39</v>
@@ -14980,34 +14987,36 @@
         <v>40</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="F159" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="E159" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="F159" s="27" t="s">
         <v>552</v>
       </c>
+      <c r="G159" s="27" t="s">
+        <v>553</v>
+      </c>
       <c r="H159" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
+      <c r="N159" s="6" t="s">
+        <v>555</v>
+      </c>
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
@@ -15021,22 +15030,20 @@
       <c r="AC159" s="6"/>
       <c r="AD159" s="6"/>
       <c r="AE159" s="8"/>
-      <c r="AF159" s="27"/>
+      <c r="AF159" s="9"/>
       <c r="AG159" s="6"/>
       <c r="AH159" s="6"/>
       <c r="AI159" s="6"/>
       <c r="AJ159" s="6"/>
       <c r="AK159" s="6" t="n">
-        <v>147</v>
-      </c>
-      <c r="AL159" s="6" t="n">
-        <v>134</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AL159" s="6"/>
       <c r="AM159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>39</v>
@@ -15045,36 +15052,36 @@
         <v>40</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="G160" s="26" t="s">
-        <v>556</v>
+        <v>526</v>
+      </c>
+      <c r="E160" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="G160" s="27" t="s">
+        <v>559</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
       <c r="N160" s="6" t="s">
-        <v>558</v>
+        <v>85</v>
       </c>
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
@@ -15094,14 +15101,14 @@
       <c r="AI160" s="6"/>
       <c r="AJ160" s="6"/>
       <c r="AK160" s="6" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL160" s="6"/>
       <c r="AM160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>39</v>
@@ -15110,36 +15117,38 @@
         <v>40</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E161" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="F161" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="E161" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="F161" s="27" t="s">
         <v>562</v>
       </c>
+      <c r="G161" s="27" t="s">
+        <v>563</v>
+      </c>
       <c r="H161" s="6" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6" t="s">
-        <v>85</v>
+      <c r="M161" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="N161" s="12" t="s">
+        <v>565</v>
       </c>
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
       <c r="S161" s="6" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
@@ -15159,14 +15168,16 @@
       <c r="AI161" s="6"/>
       <c r="AJ161" s="6"/>
       <c r="AK161" s="6" t="n">
-        <v>149</v>
-      </c>
-      <c r="AL161" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="AL161" s="6" t="n">
+        <v>104</v>
+      </c>
       <c r="AM161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>39</v>
@@ -15175,38 +15186,38 @@
         <v>40</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="F162" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="G162" s="26" t="s">
-        <v>566</v>
+        <v>526</v>
+      </c>
+      <c r="E162" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="G162" s="27" t="s">
+        <v>563</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="N162" s="12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
       <c r="S162" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
@@ -15226,16 +15237,16 @@
       <c r="AI162" s="6"/>
       <c r="AJ162" s="6"/>
       <c r="AK162" s="6" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL162" s="6" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AM162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>39</v>
@@ -15244,38 +15255,38 @@
         <v>40</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E163" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="F163" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="G163" s="26" t="s">
-        <v>566</v>
+        <v>526</v>
+      </c>
+      <c r="E163" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="F163" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="G163" s="27" t="s">
+        <v>563</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="N163" s="12" t="s">
-        <v>568</v>
+        <v>564</v>
+      </c>
+      <c r="N163" s="29" t="s">
+        <v>566</v>
       </c>
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
       <c r="S163" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
@@ -15295,16 +15306,16 @@
       <c r="AI163" s="6"/>
       <c r="AJ163" s="6"/>
       <c r="AK163" s="6" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL163" s="6" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AM163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>39</v>
@@ -15313,38 +15324,38 @@
         <v>40</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E164" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="F164" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="G164" s="26" t="s">
-        <v>566</v>
+        <v>526</v>
+      </c>
+      <c r="E164" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="F164" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="G164" s="27" t="s">
+        <v>563</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="N164" s="29" t="s">
         <v>567</v>
-      </c>
-      <c r="N164" s="28" t="s">
-        <v>569</v>
       </c>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
       <c r="S164" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
@@ -15364,82 +15375,14 @@
       <c r="AI164" s="6"/>
       <c r="AJ164" s="6"/>
       <c r="AK164" s="6" t="n">
-        <v>153</v>
-      </c>
-      <c r="AL164" s="6" t="n">
-        <v>109</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AL164" s="6"/>
       <c r="AM164" s="6"/>
     </row>
-    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="n">
-        <v>154</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E165" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="G165" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="N165" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="T165" s="6"/>
-      <c r="U165" s="6"/>
-      <c r="V165" s="6"/>
-      <c r="W165" s="6"/>
-      <c r="X165" s="6"/>
-      <c r="Y165" s="6"/>
-      <c r="Z165" s="6"/>
-      <c r="AA165" s="6"/>
-      <c r="AB165" s="6"/>
-      <c r="AC165" s="6"/>
-      <c r="AD165" s="6"/>
-      <c r="AE165" s="8"/>
-      <c r="AF165" s="9"/>
-      <c r="AG165" s="6"/>
-      <c r="AH165" s="6"/>
-      <c r="AI165" s="6"/>
-      <c r="AJ165" s="6"/>
-      <c r="AK165" s="6" t="n">
-        <v>154</v>
-      </c>
-      <c r="AL165" s="6"/>
-      <c r="AM165" s="6"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AM165"/>
+  <autoFilter ref="A1:AM164"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1586,27 +1587,11 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">126
+    <t xml:space="preserve">126
 127
+128
+131
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">128
-133
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -1907,7 +1892,7 @@
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
     <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1955,11 +1940,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2055,7 +2035,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2160,10 +2140,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2263,46 +2239,46 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
+      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="65.9838056680162"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -13528,7 +13504,7 @@
       <c r="AK139" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="AL139" s="26" t="s">
+      <c r="AL139" s="12" t="s">
         <v>478</v>
       </c>
       <c r="AM139" s="6" t="n">
@@ -14125,7 +14101,7 @@
       <c r="D147" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="27" t="s">
+      <c r="E147" s="26" t="s">
         <v>317</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -14202,7 +14178,7 @@
       <c r="D148" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="27" t="s">
+      <c r="E148" s="26" t="s">
         <v>317</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -14666,13 +14642,13 @@
       <c r="D154" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E154" s="27" t="s">
+      <c r="E154" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="F154" s="27" t="s">
+      <c r="F154" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="G154" s="27" t="s">
+      <c r="G154" s="26" t="s">
         <v>529</v>
       </c>
       <c r="H154" s="6" t="s">
@@ -14705,7 +14681,7 @@
       <c r="AC154" s="6"/>
       <c r="AD154" s="6"/>
       <c r="AE154" s="8"/>
-      <c r="AF154" s="28"/>
+      <c r="AF154" s="27"/>
       <c r="AG154" s="6"/>
       <c r="AH154" s="6"/>
       <c r="AI154" s="6"/>
@@ -14770,7 +14746,7 @@
       <c r="AC155" s="6"/>
       <c r="AD155" s="6"/>
       <c r="AE155" s="8"/>
-      <c r="AF155" s="28"/>
+      <c r="AF155" s="27"/>
       <c r="AG155" s="6"/>
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
@@ -14796,13 +14772,13 @@
       <c r="D156" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E156" s="27" t="s">
+      <c r="E156" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="F156" s="27" t="s">
+      <c r="F156" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="G156" s="27" t="s">
+      <c r="G156" s="26" t="s">
         <v>510</v>
       </c>
       <c r="H156" s="6" t="s">
@@ -14837,7 +14813,7 @@
       <c r="AC156" s="6"/>
       <c r="AD156" s="6"/>
       <c r="AE156" s="8"/>
-      <c r="AF156" s="28"/>
+      <c r="AF156" s="27"/>
       <c r="AG156" s="6"/>
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
@@ -14861,13 +14837,13 @@
       <c r="D157" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E157" s="27" t="s">
+      <c r="E157" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="F157" s="27" t="s">
+      <c r="F157" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="G157" s="27" t="s">
+      <c r="G157" s="26" t="s">
         <v>544</v>
       </c>
       <c r="H157" s="6" t="s">
@@ -14900,7 +14876,7 @@
       <c r="AC157" s="6"/>
       <c r="AD157" s="6"/>
       <c r="AE157" s="8"/>
-      <c r="AF157" s="28"/>
+      <c r="AF157" s="27"/>
       <c r="AG157" s="6"/>
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
@@ -14924,13 +14900,13 @@
       <c r="D158" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E158" s="27" t="s">
+      <c r="E158" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="F158" s="27" t="s">
+      <c r="F158" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="G158" s="27" t="s">
+      <c r="G158" s="26" t="s">
         <v>549</v>
       </c>
       <c r="H158" s="6" t="s">
@@ -14963,7 +14939,7 @@
       <c r="AC158" s="6"/>
       <c r="AD158" s="6"/>
       <c r="AE158" s="8"/>
-      <c r="AF158" s="28"/>
+      <c r="AF158" s="27"/>
       <c r="AG158" s="6"/>
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
@@ -14989,13 +14965,13 @@
       <c r="D159" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E159" s="27" t="s">
+      <c r="E159" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="F159" s="27" t="s">
+      <c r="F159" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="G159" s="27" t="s">
+      <c r="G159" s="26" t="s">
         <v>553</v>
       </c>
       <c r="H159" s="6" t="s">
@@ -15054,13 +15030,13 @@
       <c r="D160" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E160" s="27" t="s">
+      <c r="E160" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="F160" s="27" t="s">
+      <c r="F160" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="G160" s="27" t="s">
+      <c r="G160" s="26" t="s">
         <v>559</v>
       </c>
       <c r="H160" s="6" t="s">
@@ -15119,13 +15095,13 @@
       <c r="D161" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E161" s="27" t="s">
+      <c r="E161" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="F161" s="27" t="s">
+      <c r="F161" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="G161" s="27" t="s">
+      <c r="G161" s="26" t="s">
         <v>563</v>
       </c>
       <c r="H161" s="6" t="s">
@@ -15188,13 +15164,13 @@
       <c r="D162" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E162" s="27" t="s">
+      <c r="E162" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="F162" s="27" t="s">
+      <c r="F162" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="G162" s="27" t="s">
+      <c r="G162" s="26" t="s">
         <v>563</v>
       </c>
       <c r="H162" s="6" t="s">
@@ -15257,13 +15233,13 @@
       <c r="D163" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E163" s="27" t="s">
+      <c r="E163" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="F163" s="27" t="s">
+      <c r="F163" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="G163" s="27" t="s">
+      <c r="G163" s="26" t="s">
         <v>563</v>
       </c>
       <c r="H163" s="6" t="s">
@@ -15278,7 +15254,7 @@
       <c r="M163" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="N163" s="29" t="s">
+      <c r="N163" s="28" t="s">
         <v>566</v>
       </c>
       <c r="O163" s="6"/>
@@ -15326,13 +15302,13 @@
       <c r="D164" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E164" s="27" t="s">
+      <c r="E164" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="F164" s="27" t="s">
+      <c r="F164" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="G164" s="27" t="s">
+      <c r="G164" s="26" t="s">
         <v>563</v>
       </c>
       <c r="H164" s="6" t="s">
@@ -15347,7 +15323,7 @@
       <c r="M164" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="N164" s="29" t="s">
+      <c r="N164" s="28" t="s">
         <v>567</v>
       </c>
       <c r="O164" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="568">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2239,46 +2240,46 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
+      <selection pane="bottomLeft" activeCell="A144" activeCellId="0" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="66.5222672064777"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -13814,8 +13815,8 @@
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
-      <c r="AB143" s="6" t="n">
-        <v>2</v>
+      <c r="AB143" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="AC143" s="6" t="s">
         <v>85</v>
@@ -13899,8 +13900,8 @@
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
-      <c r="AB144" s="6" t="n">
-        <v>2</v>
+      <c r="AB144" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="AC144" s="6" t="s">
         <v>85</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1334,7 +1335,7 @@
     <t xml:space="preserve">SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular checkouts</t>
+    <t xml:space="preserve">1/3 of the Store</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
@@ -2238,48 +2239,48 @@
   <dimension ref="A1:AO65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A144" activeCellId="0" sqref="A144"/>
+      <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="67.1619433198381"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="52.165991902834"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -11695,7 +11696,7 @@
       </c>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
-      <c r="U117" s="6" t="s">
+      <c r="U117" s="20" t="s">
         <v>397</v>
       </c>
       <c r="V117" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -12,13 +12,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1565,7 +1558,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular checkouts,  Bakery, Entrance of SSD section, Food and beverage prep area</t>
+    <t xml:space="preserve">Regular checkouts,  Bakery, Entrance of SSD section, Food and beverage prep area, 1/3 of the Store</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -1647,10 +1640,10 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnd: Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze</t>
+    <t xml:space="preserve">Barnd: Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
@@ -1741,7 +1734,7 @@
     <t xml:space="preserve">Импульсная Активация: Добрый Яблоко 0.33 л в выпечке</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobry Apple 0.33L in Bakery </t>
+    <t xml:space="preserve">Dobriy 0.33 in Bakery </t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -1944,7 +1937,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1973,6 +1966,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2037,13 +2036,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2138,12 +2137,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2215,7 +2226,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2236,58 +2247,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO65536"/>
+  <dimension ref="A1:AO164"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.0769230769231"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.6518218623482"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.5748987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.0080971659919"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6599190283401"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.4898785425101"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.3684210526316"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="84.6032388663968"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1943319838057"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="53.9433198380567"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.7246963562753"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.919028340081"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.8178137651822"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.2631578947368"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="61.663967611336"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.9716599190283"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.86234817813765"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2405,9 +2417,8 @@
       <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>155</v>
       </c>
@@ -2467,9 +2478,8 @@
         <v>44</v>
       </c>
       <c r="AM2" s="6"/>
-      <c r="AO2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>156</v>
       </c>
@@ -2529,9 +2539,8 @@
         <v>46</v>
       </c>
       <c r="AM3" s="10"/>
-      <c r="AO3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>157</v>
       </c>
@@ -2593,9 +2602,8 @@
       <c r="AM4" s="10" t="n">
         <v>301</v>
       </c>
-      <c r="AO4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>158</v>
       </c>
@@ -2657,9 +2665,8 @@
       <c r="AM5" s="10" t="n">
         <v>301</v>
       </c>
-      <c r="AO5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>159</v>
       </c>
@@ -2719,9 +2726,8 @@
         <v>54</v>
       </c>
       <c r="AM6" s="10"/>
-      <c r="AO6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>160</v>
       </c>
@@ -2783,9 +2789,8 @@
       <c r="AM7" s="10" t="n">
         <v>310</v>
       </c>
-      <c r="AO7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>161</v>
       </c>
@@ -2847,9 +2852,8 @@
       <c r="AM8" s="10" t="n">
         <v>310</v>
       </c>
-      <c r="AO8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>162</v>
       </c>
@@ -2909,9 +2913,8 @@
         <v>136</v>
       </c>
       <c r="AM9" s="10"/>
-      <c r="AO9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>163</v>
       </c>
@@ -2973,9 +2976,8 @@
       <c r="AM10" s="13" t="n">
         <v>520</v>
       </c>
-      <c r="AO10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>164</v>
       </c>
@@ -3037,9 +3039,8 @@
       <c r="AM11" s="13" t="n">
         <v>520</v>
       </c>
-      <c r="AO11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>165</v>
       </c>
@@ -3101,9 +3102,8 @@
       <c r="AM12" s="13" t="n">
         <v>520</v>
       </c>
-      <c r="AO12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>166</v>
       </c>
@@ -3165,9 +3165,8 @@
       <c r="AM13" s="13" t="n">
         <v>520</v>
       </c>
-      <c r="AO13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>167</v>
       </c>
@@ -3229,9 +3228,8 @@
       <c r="AM14" s="13" t="n">
         <v>520</v>
       </c>
-      <c r="AO14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>169</v>
       </c>
@@ -3291,9 +3289,8 @@
         <v>80</v>
       </c>
       <c r="AM15" s="6"/>
-      <c r="AO15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>1</v>
       </c>
@@ -3361,9 +3358,8 @@
       <c r="AM16" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="AO16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>2</v>
       </c>
@@ -3445,9 +3441,8 @@
       <c r="AM17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>3</v>
       </c>
@@ -3529,9 +3524,8 @@
       <c r="AM18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>4</v>
       </c>
@@ -3613,9 +3607,8 @@
       <c r="AM19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>5</v>
       </c>
@@ -3697,9 +3690,8 @@
       <c r="AM20" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>6</v>
       </c>
@@ -3781,9 +3773,8 @@
       <c r="AM21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>7</v>
       </c>
@@ -3865,9 +3856,8 @@
       <c r="AM22" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>8</v>
       </c>
@@ -3949,9 +3939,8 @@
       <c r="AM23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>9</v>
       </c>
@@ -4033,9 +4022,8 @@
       <c r="AM24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>10</v>
       </c>
@@ -4117,9 +4105,8 @@
       <c r="AM25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>11</v>
       </c>
@@ -4201,9 +4188,8 @@
       <c r="AM26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>12</v>
       </c>
@@ -4285,9 +4271,8 @@
       <c r="AM27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>13</v>
       </c>
@@ -4369,9 +4354,8 @@
       <c r="AM28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>14</v>
       </c>
@@ -4453,9 +4437,8 @@
       <c r="AM29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>15</v>
       </c>
@@ -4537,9 +4520,8 @@
       <c r="AM30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>16</v>
       </c>
@@ -4621,9 +4603,8 @@
       <c r="AM31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>17</v>
       </c>
@@ -4705,9 +4686,8 @@
       <c r="AM32" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>18</v>
       </c>
@@ -4789,9 +4769,8 @@
       <c r="AM33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>19</v>
       </c>
@@ -4873,9 +4852,8 @@
       <c r="AM34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>20</v>
       </c>
@@ -4957,9 +4935,8 @@
       <c r="AM35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>21</v>
       </c>
@@ -5041,9 +5018,8 @@
       <c r="AM36" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>22</v>
       </c>
@@ -5125,9 +5101,8 @@
       <c r="AM37" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>23</v>
       </c>
@@ -5209,9 +5184,8 @@
       <c r="AM38" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>24</v>
       </c>
@@ -5293,9 +5267,8 @@
       <c r="AM39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>25</v>
       </c>
@@ -5377,9 +5350,8 @@
       <c r="AM40" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AO40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>26</v>
       </c>
@@ -5447,9 +5419,8 @@
       <c r="AM41" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="AO41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>27</v>
       </c>
@@ -5531,9 +5502,8 @@
       <c r="AM42" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AO42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>28</v>
       </c>
@@ -5615,9 +5585,8 @@
       <c r="AM43" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AO43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>29</v>
       </c>
@@ -5699,9 +5668,8 @@
       <c r="AM44" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AO44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>30</v>
       </c>
@@ -5783,9 +5751,8 @@
       <c r="AM45" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AO45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>31</v>
       </c>
@@ -5853,9 +5820,8 @@
       <c r="AM46" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="AO46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>32</v>
       </c>
@@ -5937,9 +5903,8 @@
       <c r="AM47" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AO47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>33</v>
       </c>
@@ -6021,9 +5986,8 @@
       <c r="AM48" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AO48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>34</v>
       </c>
@@ -6105,9 +6069,8 @@
       <c r="AM49" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AO49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>35</v>
       </c>
@@ -6189,9 +6152,8 @@
       <c r="AM50" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AO50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>36</v>
       </c>
@@ -6259,9 +6221,8 @@
       <c r="AM51" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="AO51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>37</v>
       </c>
@@ -6343,9 +6304,8 @@
       <c r="AM52" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AO52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>38</v>
       </c>
@@ -6427,9 +6387,8 @@
       <c r="AM53" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AO53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>39</v>
       </c>
@@ -6511,9 +6470,8 @@
       <c r="AM54" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AO54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>40</v>
       </c>
@@ -6595,9 +6553,8 @@
       <c r="AM55" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AO55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>41</v>
       </c>
@@ -6679,9 +6636,8 @@
       <c r="AM56" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="AO56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>42</v>
       </c>
@@ -6749,9 +6705,8 @@
       <c r="AM57" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="AO57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>43</v>
       </c>
@@ -6833,9 +6788,8 @@
       <c r="AM58" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>44</v>
       </c>
@@ -6917,9 +6871,8 @@
       <c r="AM59" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>45</v>
       </c>
@@ -7001,9 +6954,8 @@
       <c r="AM60" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>46</v>
       </c>
@@ -7085,9 +7037,8 @@
       <c r="AM61" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>47</v>
       </c>
@@ -7169,9 +7120,8 @@
       <c r="AM62" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>48</v>
       </c>
@@ -7253,9 +7203,8 @@
       <c r="AM63" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>49</v>
       </c>
@@ -7337,9 +7286,8 @@
       <c r="AM64" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>50</v>
       </c>
@@ -7421,9 +7369,8 @@
       <c r="AM65" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>51</v>
       </c>
@@ -7505,9 +7452,8 @@
       <c r="AM66" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>52</v>
       </c>
@@ -7589,9 +7535,8 @@
       <c r="AM67" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>53</v>
       </c>
@@ -7673,9 +7618,8 @@
       <c r="AM68" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>54</v>
       </c>
@@ -7757,9 +7701,8 @@
       <c r="AM69" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>55</v>
       </c>
@@ -7841,9 +7784,8 @@
       <c r="AM70" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>56</v>
       </c>
@@ -7925,9 +7867,8 @@
       <c r="AM71" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>57</v>
       </c>
@@ -8009,9 +7950,8 @@
       <c r="AM72" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>58</v>
       </c>
@@ -8093,9 +8033,8 @@
       <c r="AM73" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>59</v>
       </c>
@@ -8177,9 +8116,8 @@
       <c r="AM74" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>60</v>
       </c>
@@ -8261,9 +8199,8 @@
       <c r="AM75" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>61</v>
       </c>
@@ -8345,9 +8282,8 @@
       <c r="AM76" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>62</v>
       </c>
@@ -8429,9 +8365,8 @@
       <c r="AM77" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>63</v>
       </c>
@@ -8513,9 +8448,8 @@
       <c r="AM78" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>64</v>
       </c>
@@ -8597,9 +8531,8 @@
       <c r="AM79" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>65</v>
       </c>
@@ -8681,9 +8614,8 @@
       <c r="AM80" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>66</v>
       </c>
@@ -8765,9 +8697,8 @@
       <c r="AM81" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>67</v>
       </c>
@@ -8849,9 +8780,8 @@
       <c r="AM82" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>68</v>
       </c>
@@ -8933,9 +8863,8 @@
       <c r="AM83" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>69</v>
       </c>
@@ -9017,9 +8946,8 @@
       <c r="AM84" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>70</v>
       </c>
@@ -9101,9 +9029,8 @@
       <c r="AM85" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>71</v>
       </c>
@@ -9185,9 +9112,8 @@
       <c r="AM86" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>72</v>
       </c>
@@ -9269,9 +9195,8 @@
       <c r="AM87" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>73</v>
       </c>
@@ -9353,9 +9278,8 @@
       <c r="AM88" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AO88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>74</v>
       </c>
@@ -9437,9 +9361,8 @@
       <c r="AM89" s="6" t="n">
         <v>501</v>
       </c>
-      <c r="AO89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>75</v>
       </c>
@@ -9517,9 +9440,8 @@
       <c r="AM90" s="6" t="n">
         <v>501</v>
       </c>
-      <c r="AO90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>76</v>
       </c>
@@ -9599,9 +9521,8 @@
       <c r="AM91" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>77</v>
       </c>
@@ -9681,9 +9602,8 @@
       <c r="AM92" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>78</v>
       </c>
@@ -9763,9 +9683,8 @@
       <c r="AM93" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>79</v>
       </c>
@@ -9845,9 +9764,8 @@
       <c r="AM94" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>80</v>
       </c>
@@ -9927,9 +9845,8 @@
       <c r="AM95" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO95" s="0"/>
-    </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>81</v>
       </c>
@@ -10009,9 +9926,8 @@
       <c r="AM96" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>82</v>
       </c>
@@ -10091,9 +10007,8 @@
       <c r="AM97" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO97" s="0"/>
-    </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>83</v>
       </c>
@@ -10173,9 +10088,8 @@
       <c r="AM98" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO98" s="0"/>
-    </row>
-    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>84</v>
       </c>
@@ -10255,9 +10169,8 @@
       <c r="AM99" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="AO99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>85</v>
       </c>
@@ -10339,9 +10252,8 @@
       <c r="AM100" s="6" t="n">
         <v>502</v>
       </c>
-      <c r="AO100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>86</v>
       </c>
@@ -10419,9 +10331,8 @@
       <c r="AM101" s="6" t="n">
         <v>502</v>
       </c>
-      <c r="AO101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>87</v>
       </c>
@@ -10501,9 +10412,8 @@
       <c r="AM102" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="AO102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>88</v>
       </c>
@@ -10583,9 +10493,8 @@
       <c r="AM103" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="AO103" s="0"/>
-    </row>
-    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>89</v>
       </c>
@@ -10665,9 +10574,8 @@
       <c r="AM104" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="AO104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>90</v>
       </c>
@@ -10747,9 +10655,8 @@
       <c r="AM105" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="AO105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>91</v>
       </c>
@@ -10829,9 +10736,8 @@
       <c r="AM106" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="AO106" s="0"/>
-    </row>
-    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>92</v>
       </c>
@@ -10913,9 +10819,8 @@
       <c r="AM107" s="6" t="n">
         <v>503</v>
       </c>
-      <c r="AO107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>93</v>
       </c>
@@ -10993,9 +10898,8 @@
       <c r="AM108" s="6" t="n">
         <v>503</v>
       </c>
-      <c r="AO108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>94</v>
       </c>
@@ -11075,9 +10979,8 @@
       <c r="AM109" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="AO109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>95</v>
       </c>
@@ -11159,9 +11062,8 @@
       <c r="AM110" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="AO110" s="0"/>
-    </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>96</v>
       </c>
@@ -11239,9 +11141,8 @@
       <c r="AM111" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="AO111" s="0"/>
-    </row>
-    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>97</v>
       </c>
@@ -11321,9 +11222,8 @@
       <c r="AM112" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="AO112" s="0"/>
-    </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>98</v>
       </c>
@@ -11403,9 +11303,8 @@
       <c r="AM113" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="AO113" s="0"/>
-    </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>99</v>
       </c>
@@ -11487,9 +11386,8 @@
       <c r="AM114" s="6" t="n">
         <v>505</v>
       </c>
-      <c r="AO114" s="0"/>
-    </row>
-    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>100</v>
       </c>
@@ -11567,9 +11465,8 @@
       <c r="AM115" s="6" t="n">
         <v>302</v>
       </c>
-      <c r="AO115" s="0"/>
-    </row>
-    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>101</v>
       </c>
@@ -11651,9 +11548,8 @@
       <c r="AM116" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="AO116" s="0"/>
-    </row>
-    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>102</v>
       </c>
@@ -11731,9 +11627,8 @@
       <c r="AM117" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="AO117" s="0"/>
-    </row>
-    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>103</v>
       </c>
@@ -11815,9 +11710,8 @@
       <c r="AM118" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="AO118" s="0"/>
-    </row>
-    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>104</v>
       </c>
@@ -11899,9 +11793,8 @@
       <c r="AM119" s="6" t="n">
         <v>302</v>
       </c>
-      <c r="AO119" s="0"/>
-    </row>
-    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>105</v>
       </c>
@@ -11983,7 +11876,7 @@
       </c>
       <c r="AO120" s="21"/>
     </row>
-    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>106</v>
       </c>
@@ -12065,7 +11958,7 @@
       </c>
       <c r="AO121" s="21"/>
     </row>
-    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>107</v>
       </c>
@@ -12147,7 +12040,7 @@
       </c>
       <c r="AO122" s="21"/>
     </row>
-    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>108</v>
       </c>
@@ -12229,7 +12122,7 @@
       </c>
       <c r="AO123" s="21"/>
     </row>
-    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>109</v>
       </c>
@@ -12308,7 +12201,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>110</v>
       </c>
@@ -12391,7 +12284,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>111</v>
       </c>
@@ -12470,7 +12363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>112</v>
       </c>
@@ -12553,7 +12446,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>113</v>
       </c>
@@ -12632,7 +12525,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>114</v>
       </c>
@@ -12715,7 +12608,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>115</v>
       </c>
@@ -12794,7 +12687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>116</v>
       </c>
@@ -12871,7 +12764,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>117</v>
       </c>
@@ -12952,7 +12845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>118</v>
       </c>
@@ -13033,7 +12926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>119</v>
       </c>
@@ -13108,7 +13001,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>120</v>
       </c>
@@ -13187,7 +13080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>121</v>
       </c>
@@ -13264,7 +13157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>122</v>
       </c>
@@ -13305,7 +13198,7 @@
       </c>
       <c r="S137" s="6"/>
       <c r="T137" s="6"/>
-      <c r="U137" s="6" t="s">
+      <c r="U137" s="24" t="s">
         <v>470</v>
       </c>
       <c r="V137" s="6"/>
@@ -13345,7 +13238,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>123</v>
       </c>
@@ -13367,7 +13260,7 @@
       <c r="G138" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="H138" s="24" t="s">
+      <c r="H138" s="25" t="s">
         <v>474</v>
       </c>
       <c r="I138" s="6"/>
@@ -13430,7 +13323,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>124</v>
       </c>
@@ -13488,7 +13381,7 @@
       <c r="AE139" s="8" t="n">
         <v>0.025</v>
       </c>
-      <c r="AF139" s="25" t="n">
+      <c r="AF139" s="26" t="n">
         <v>0.5</v>
       </c>
       <c r="AG139" s="6" t="n">
@@ -13513,7 +13406,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>126</v>
       </c>
@@ -13598,7 +13491,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>127</v>
       </c>
@@ -13683,7 +13576,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>128</v>
       </c>
@@ -13760,7 +13653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>129</v>
       </c>
@@ -13845,7 +13738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>130</v>
       </c>
@@ -13874,14 +13767,14 @@
       </c>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
-      <c r="M144" s="6" t="s">
+      <c r="M144" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="N144" s="10" t="s">
+      <c r="N144" s="27" t="s">
         <v>496</v>
       </c>
       <c r="O144" s="10"/>
-      <c r="P144" s="10" t="s">
+      <c r="P144" s="27" t="s">
         <v>496</v>
       </c>
       <c r="Q144" s="6" t="s">
@@ -13930,7 +13823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>131</v>
       </c>
@@ -13950,7 +13843,7 @@
       <c r="G145" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H145" s="24" t="s">
+      <c r="H145" s="25" t="s">
         <v>499</v>
       </c>
       <c r="I145" s="6"/>
@@ -14011,7 +13904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>133</v>
       </c>
@@ -14090,7 +13983,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>134</v>
       </c>
@@ -14103,7 +13996,7 @@
       <c r="D147" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="28" t="s">
         <v>317</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -14167,7 +14060,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>135</v>
       </c>
@@ -14180,7 +14073,7 @@
       <c r="D148" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="28" t="s">
         <v>317</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -14250,7 +14143,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>136</v>
       </c>
@@ -14319,7 +14212,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>137</v>
       </c>
@@ -14398,7 +14291,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>138</v>
       </c>
@@ -14477,7 +14370,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>139</v>
       </c>
@@ -14554,7 +14447,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>140</v>
       </c>
@@ -14584,7 +14477,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
-      <c r="N153" s="6" t="s">
+      <c r="N153" s="29" t="s">
         <v>525</v>
       </c>
       <c r="O153" s="10"/>
@@ -14600,7 +14493,7 @@
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
-      <c r="X153" s="6" t="s">
+      <c r="X153" s="29" t="s">
         <v>525</v>
       </c>
       <c r="Y153" s="6"/>
@@ -14631,7 +14524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>141</v>
       </c>
@@ -14644,13 +14537,13 @@
       <c r="D154" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="F154" s="26" t="s">
+      <c r="F154" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="G154" s="26" t="s">
+      <c r="G154" s="28" t="s">
         <v>529</v>
       </c>
       <c r="H154" s="6" t="s">
@@ -14683,7 +14576,7 @@
       <c r="AC154" s="6"/>
       <c r="AD154" s="6"/>
       <c r="AE154" s="8"/>
-      <c r="AF154" s="27"/>
+      <c r="AF154" s="30"/>
       <c r="AG154" s="6"/>
       <c r="AH154" s="6"/>
       <c r="AI154" s="6"/>
@@ -14696,7 +14589,7 @@
       </c>
       <c r="AM154" s="6"/>
     </row>
-    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>142</v>
       </c>
@@ -14748,7 +14641,7 @@
       <c r="AC155" s="6"/>
       <c r="AD155" s="6"/>
       <c r="AE155" s="8"/>
-      <c r="AF155" s="27"/>
+      <c r="AF155" s="30"/>
       <c r="AG155" s="6"/>
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
@@ -14761,7 +14654,7 @@
       </c>
       <c r="AM155" s="6"/>
     </row>
-    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>143</v>
       </c>
@@ -14774,13 +14667,13 @@
       <c r="D156" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="F156" s="26" t="s">
+      <c r="F156" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="G156" s="26" t="s">
+      <c r="G156" s="28" t="s">
         <v>510</v>
       </c>
       <c r="H156" s="6" t="s">
@@ -14815,7 +14708,7 @@
       <c r="AC156" s="6"/>
       <c r="AD156" s="6"/>
       <c r="AE156" s="8"/>
-      <c r="AF156" s="27"/>
+      <c r="AF156" s="30"/>
       <c r="AG156" s="6"/>
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
@@ -14826,7 +14719,7 @@
       <c r="AL156" s="6"/>
       <c r="AM156" s="6"/>
     </row>
-    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>146</v>
       </c>
@@ -14839,13 +14732,13 @@
       <c r="D157" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="F157" s="26" t="s">
+      <c r="F157" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="G157" s="26" t="s">
+      <c r="G157" s="28" t="s">
         <v>544</v>
       </c>
       <c r="H157" s="6" t="s">
@@ -14878,7 +14771,7 @@
       <c r="AC157" s="6"/>
       <c r="AD157" s="6"/>
       <c r="AE157" s="8"/>
-      <c r="AF157" s="27"/>
+      <c r="AF157" s="30"/>
       <c r="AG157" s="6"/>
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
@@ -14889,7 +14782,7 @@
       <c r="AL157" s="6"/>
       <c r="AM157" s="6"/>
     </row>
-    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>147</v>
       </c>
@@ -14902,13 +14795,13 @@
       <c r="D158" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="F158" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="G158" s="26" t="s">
+      <c r="G158" s="28" t="s">
         <v>549</v>
       </c>
       <c r="H158" s="6" t="s">
@@ -14941,7 +14834,7 @@
       <c r="AC158" s="6"/>
       <c r="AD158" s="6"/>
       <c r="AE158" s="8"/>
-      <c r="AF158" s="27"/>
+      <c r="AF158" s="30"/>
       <c r="AG158" s="6"/>
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
@@ -14954,7 +14847,7 @@
       </c>
       <c r="AM158" s="6"/>
     </row>
-    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>148</v>
       </c>
@@ -14967,13 +14860,13 @@
       <c r="D159" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="F159" s="26" t="s">
+      <c r="F159" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="G159" s="28" t="s">
         <v>553</v>
       </c>
       <c r="H159" s="6" t="s">
@@ -15019,7 +14912,7 @@
       <c r="AL159" s="6"/>
       <c r="AM159" s="6"/>
     </row>
-    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>149</v>
       </c>
@@ -15032,13 +14925,13 @@
       <c r="D160" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="F160" s="26" t="s">
+      <c r="F160" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="G160" s="26" t="s">
+      <c r="G160" s="28" t="s">
         <v>559</v>
       </c>
       <c r="H160" s="6" t="s">
@@ -15084,7 +14977,7 @@
       <c r="AL160" s="6"/>
       <c r="AM160" s="6"/>
     </row>
-    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>151</v>
       </c>
@@ -15097,13 +14990,13 @@
       <c r="D161" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="F161" s="26" t="s">
+      <c r="F161" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G161" s="28" t="s">
         <v>563</v>
       </c>
       <c r="H161" s="6" t="s">
@@ -15153,7 +15046,7 @@
       </c>
       <c r="AM161" s="6"/>
     </row>
-    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>152</v>
       </c>
@@ -15166,13 +15059,13 @@
       <c r="D162" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="F162" s="26" t="s">
+      <c r="F162" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="28" t="s">
         <v>563</v>
       </c>
       <c r="H162" s="6" t="s">
@@ -15222,7 +15115,7 @@
       </c>
       <c r="AM162" s="6"/>
     </row>
-    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>153</v>
       </c>
@@ -15235,13 +15128,13 @@
       <c r="D163" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="F163" s="26" t="s">
+      <c r="F163" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="G163" s="26" t="s">
+      <c r="G163" s="28" t="s">
         <v>563</v>
       </c>
       <c r="H163" s="6" t="s">
@@ -15256,7 +15149,7 @@
       <c r="M163" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="N163" s="28" t="s">
+      <c r="N163" s="31" t="s">
         <v>566</v>
       </c>
       <c r="O163" s="6"/>
@@ -15291,7 +15184,7 @@
       </c>
       <c r="AM163" s="6"/>
     </row>
-    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>154</v>
       </c>
@@ -15304,13 +15197,13 @@
       <c r="D164" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="F164" s="26" t="s">
+      <c r="F164" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="28" t="s">
         <v>563</v>
       </c>
       <c r="H164" s="6" t="s">
@@ -15325,7 +15218,7 @@
       <c r="M164" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="N164" s="28" t="s">
+      <c r="N164" s="31" t="s">
         <v>567</v>
       </c>
       <c r="O164" s="6"/>
@@ -15358,12 +15251,11 @@
       <c r="AL164" s="6"/>
       <c r="AM164" s="6"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AM164"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1435,7 +1436,8 @@
   </si>
   <si>
     <t xml:space="preserve">114
-115</t>
+115
+116</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Display 1st: Facings</t>
@@ -2249,54 +2251,54 @@
   </sheetPr>
   <dimension ref="A1:AO164"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AL129" activeCellId="0" sqref="AL129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.0769230769231"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.6518218623482"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.2914979757085"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.5748987854251"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.0080971659919"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6599190283401"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.2914979757085"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8866396761134"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.4898785425101"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="84.6032388663968"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1943319838057"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="53.9433198380567"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.3157894736842"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.4574898785425"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.7246963562753"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.919028340081"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.8178137651822"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.2631578947368"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="61.663967611336"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.9716599190283"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.86234817813765"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.51417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="62.2348178137652"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2417,6 +2419,7 @@
       <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -2478,6 +2481,7 @@
         <v>44</v>
       </c>
       <c r="AM2" s="6"/>
+      <c r="AO2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
@@ -2539,6 +2543,7 @@
         <v>46</v>
       </c>
       <c r="AM3" s="10"/>
+      <c r="AO3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
@@ -2602,6 +2607,7 @@
       <c r="AM4" s="10" t="n">
         <v>301</v>
       </c>
+      <c r="AO4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
@@ -2665,6 +2671,7 @@
       <c r="AM5" s="10" t="n">
         <v>301</v>
       </c>
+      <c r="AO5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
@@ -2726,6 +2733,7 @@
         <v>54</v>
       </c>
       <c r="AM6" s="10"/>
+      <c r="AO6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -2789,6 +2797,7 @@
       <c r="AM7" s="10" t="n">
         <v>310</v>
       </c>
+      <c r="AO7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -2852,6 +2861,7 @@
       <c r="AM8" s="10" t="n">
         <v>310</v>
       </c>
+      <c r="AO8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -2913,6 +2923,7 @@
         <v>136</v>
       </c>
       <c r="AM9" s="10"/>
+      <c r="AO9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -2976,6 +2987,7 @@
       <c r="AM10" s="13" t="n">
         <v>520</v>
       </c>
+      <c r="AO10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3039,6 +3051,7 @@
       <c r="AM11" s="13" t="n">
         <v>520</v>
       </c>
+      <c r="AO11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -3102,6 +3115,7 @@
       <c r="AM12" s="13" t="n">
         <v>520</v>
       </c>
+      <c r="AO12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -3165,6 +3179,7 @@
       <c r="AM13" s="13" t="n">
         <v>520</v>
       </c>
+      <c r="AO13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -3228,6 +3243,7 @@
       <c r="AM14" s="13" t="n">
         <v>520</v>
       </c>
+      <c r="AO14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -3289,6 +3305,7 @@
         <v>80</v>
       </c>
       <c r="AM15" s="6"/>
+      <c r="AO15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -3358,6 +3375,7 @@
       <c r="AM16" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AO16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -3441,6 +3459,7 @@
       <c r="AM17" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -3524,6 +3543,7 @@
       <c r="AM18" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -3607,6 +3627,7 @@
       <c r="AM19" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -3690,6 +3711,7 @@
       <c r="AM20" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -3773,6 +3795,7 @@
       <c r="AM21" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -3856,6 +3879,7 @@
       <c r="AM22" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -3939,6 +3963,7 @@
       <c r="AM23" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4022,6 +4047,7 @@
       <c r="AM24" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4105,6 +4131,7 @@
       <c r="AM25" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4188,6 +4215,7 @@
       <c r="AM26" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4271,6 +4299,7 @@
       <c r="AM27" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4354,6 +4383,7 @@
       <c r="AM28" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -4437,6 +4467,7 @@
       <c r="AM29" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -4520,6 +4551,7 @@
       <c r="AM30" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -4603,6 +4635,7 @@
       <c r="AM31" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -4686,6 +4719,7 @@
       <c r="AM32" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -4769,6 +4803,7 @@
       <c r="AM33" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -4852,6 +4887,7 @@
       <c r="AM34" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -4935,6 +4971,7 @@
       <c r="AM35" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -5018,6 +5055,7 @@
       <c r="AM36" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -5101,6 +5139,7 @@
       <c r="AM37" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -5184,6 +5223,7 @@
       <c r="AM38" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -5267,6 +5307,7 @@
       <c r="AM39" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -5350,6 +5391,7 @@
       <c r="AM40" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="AO40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -5419,6 +5461,7 @@
       <c r="AM41" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AO41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -5502,6 +5545,7 @@
       <c r="AM42" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="AO42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -5585,6 +5629,7 @@
       <c r="AM43" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="AO43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -5668,6 +5713,7 @@
       <c r="AM44" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="AO44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -5751,6 +5797,7 @@
       <c r="AM45" s="6" t="n">
         <v>26</v>
       </c>
+      <c r="AO45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -5820,6 +5867,7 @@
       <c r="AM46" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AO46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -5903,6 +5951,7 @@
       <c r="AM47" s="6" t="n">
         <v>31</v>
       </c>
+      <c r="AO47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -5986,6 +6035,7 @@
       <c r="AM48" s="6" t="n">
         <v>31</v>
       </c>
+      <c r="AO48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -6069,6 +6119,7 @@
       <c r="AM49" s="6" t="n">
         <v>31</v>
       </c>
+      <c r="AO49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -6152,6 +6203,7 @@
       <c r="AM50" s="6" t="n">
         <v>31</v>
       </c>
+      <c r="AO50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -6221,6 +6273,7 @@
       <c r="AM51" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AO51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -6304,6 +6357,7 @@
       <c r="AM52" s="6" t="n">
         <v>36</v>
       </c>
+      <c r="AO52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -6387,6 +6441,7 @@
       <c r="AM53" s="6" t="n">
         <v>36</v>
       </c>
+      <c r="AO53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -6470,6 +6525,7 @@
       <c r="AM54" s="6" t="n">
         <v>36</v>
       </c>
+      <c r="AO54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -6553,6 +6609,7 @@
       <c r="AM55" s="6" t="n">
         <v>36</v>
       </c>
+      <c r="AO55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -6636,6 +6693,7 @@
       <c r="AM56" s="6" t="n">
         <v>36</v>
       </c>
+      <c r="AO56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -6705,6 +6763,7 @@
       <c r="AM57" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="AO57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -6788,6 +6847,7 @@
       <c r="AM58" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -6871,6 +6931,7 @@
       <c r="AM59" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -6954,6 +7015,7 @@
       <c r="AM60" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -7037,6 +7099,7 @@
       <c r="AM61" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -7120,6 +7183,7 @@
       <c r="AM62" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -7203,6 +7267,7 @@
       <c r="AM63" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -7286,6 +7351,7 @@
       <c r="AM64" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -7369,6 +7435,7 @@
       <c r="AM65" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -7452,6 +7519,7 @@
       <c r="AM66" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -7535,6 +7603,7 @@
       <c r="AM67" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -7618,6 +7687,7 @@
       <c r="AM68" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -7701,6 +7771,7 @@
       <c r="AM69" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -7784,6 +7855,7 @@
       <c r="AM70" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -7867,6 +7939,7 @@
       <c r="AM71" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -7950,6 +8023,7 @@
       <c r="AM72" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -8033,6 +8107,7 @@
       <c r="AM73" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -8116,6 +8191,7 @@
       <c r="AM74" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -8199,6 +8275,7 @@
       <c r="AM75" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -8282,6 +8359,7 @@
       <c r="AM76" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -8365,6 +8443,7 @@
       <c r="AM77" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -8448,6 +8527,7 @@
       <c r="AM78" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -8531,6 +8611,7 @@
       <c r="AM79" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -8614,6 +8695,7 @@
       <c r="AM80" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
@@ -8697,6 +8779,7 @@
       <c r="AM81" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -8780,6 +8863,7 @@
       <c r="AM82" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
@@ -8863,6 +8947,7 @@
       <c r="AM83" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
@@ -8946,6 +9031,7 @@
       <c r="AM84" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
@@ -9029,6 +9115,7 @@
       <c r="AM85" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
@@ -9112,6 +9199,7 @@
       <c r="AM86" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
@@ -9195,6 +9283,7 @@
       <c r="AM87" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
@@ -9278,6 +9367,7 @@
       <c r="AM88" s="6" t="n">
         <v>42</v>
       </c>
+      <c r="AO88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
@@ -9361,6 +9451,7 @@
       <c r="AM89" s="6" t="n">
         <v>501</v>
       </c>
+      <c r="AO89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
@@ -9440,6 +9531,7 @@
       <c r="AM90" s="6" t="n">
         <v>501</v>
       </c>
+      <c r="AO90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
@@ -9521,6 +9613,7 @@
       <c r="AM91" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
@@ -9602,6 +9695,7 @@
       <c r="AM92" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
@@ -9683,6 +9777,7 @@
       <c r="AM93" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
@@ -9764,6 +9859,7 @@
       <c r="AM94" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
@@ -9845,6 +9941,7 @@
       <c r="AM95" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
@@ -9926,6 +10023,7 @@
       <c r="AM96" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
@@ -10007,6 +10105,7 @@
       <c r="AM97" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
@@ -10088,6 +10187,7 @@
       <c r="AM98" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
@@ -10169,6 +10269,7 @@
       <c r="AM99" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="AO99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
@@ -10252,6 +10353,7 @@
       <c r="AM100" s="6" t="n">
         <v>502</v>
       </c>
+      <c r="AO100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
@@ -10331,6 +10433,7 @@
       <c r="AM101" s="6" t="n">
         <v>502</v>
       </c>
+      <c r="AO101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
@@ -10412,6 +10515,7 @@
       <c r="AM102" s="6" t="n">
         <v>86</v>
       </c>
+      <c r="AO102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
@@ -10493,6 +10597,7 @@
       <c r="AM103" s="6" t="n">
         <v>86</v>
       </c>
+      <c r="AO103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
@@ -10574,6 +10679,7 @@
       <c r="AM104" s="6" t="n">
         <v>86</v>
       </c>
+      <c r="AO104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
@@ -10655,6 +10761,7 @@
       <c r="AM105" s="6" t="n">
         <v>86</v>
       </c>
+      <c r="AO105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
@@ -10736,6 +10843,7 @@
       <c r="AM106" s="6" t="n">
         <v>86</v>
       </c>
+      <c r="AO106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
@@ -10819,6 +10927,7 @@
       <c r="AM107" s="6" t="n">
         <v>503</v>
       </c>
+      <c r="AO107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
@@ -10898,6 +11007,7 @@
       <c r="AM108" s="6" t="n">
         <v>503</v>
       </c>
+      <c r="AO108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
@@ -10979,6 +11089,7 @@
       <c r="AM109" s="6" t="n">
         <v>93</v>
       </c>
+      <c r="AO109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
@@ -11062,6 +11173,7 @@
       <c r="AM110" s="6" t="n">
         <v>504</v>
       </c>
+      <c r="AO110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
@@ -11141,6 +11253,7 @@
       <c r="AM111" s="6" t="n">
         <v>504</v>
       </c>
+      <c r="AO111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
@@ -11222,6 +11335,7 @@
       <c r="AM112" s="6" t="n">
         <v>96</v>
       </c>
+      <c r="AO112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
@@ -11303,6 +11417,7 @@
       <c r="AM113" s="6" t="n">
         <v>96</v>
       </c>
+      <c r="AO113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
@@ -11386,6 +11501,7 @@
       <c r="AM114" s="6" t="n">
         <v>505</v>
       </c>
+      <c r="AO114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
@@ -11465,6 +11581,7 @@
       <c r="AM115" s="6" t="n">
         <v>302</v>
       </c>
+      <c r="AO115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
@@ -11548,6 +11665,7 @@
       <c r="AM116" s="6" t="n">
         <v>100</v>
       </c>
+      <c r="AO116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
@@ -11627,6 +11745,7 @@
       <c r="AM117" s="6" t="n">
         <v>100</v>
       </c>
+      <c r="AO117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
@@ -11710,6 +11829,7 @@
       <c r="AM118" s="6" t="n">
         <v>100</v>
       </c>
+      <c r="AO118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
@@ -11793,6 +11913,7 @@
       <c r="AM119" s="6" t="n">
         <v>302</v>
       </c>
+      <c r="AO119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="568">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1427,9 +1428,6 @@
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
   </si>
   <si>
     <t xml:space="preserve">1101</t>
@@ -2259,52 +2257,52 @@
   <dimension ref="A1:AO164"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A115" activeCellId="0" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.1619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.7044534412956"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.8866396761134"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -11553,9 +11551,7 @@
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
       <c r="V115" s="7"/>
-      <c r="W115" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W115" s="7"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="15" t="s">
@@ -11641,9 +11637,7 @@
       <c r="T116" s="7"/>
       <c r="U116" s="21"/>
       <c r="V116" s="7"/>
-      <c r="W116" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W116" s="7"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
       <c r="Z116" s="15" t="s">
@@ -11721,9 +11715,7 @@
         <v>397</v>
       </c>
       <c r="V117" s="7"/>
-      <c r="W117" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W117" s="7"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="15" t="s">
@@ -11803,9 +11795,7 @@
       <c r="T118" s="7"/>
       <c r="U118" s="21"/>
       <c r="V118" s="7"/>
-      <c r="W118" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W118" s="7"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="7"/>
       <c r="Z118" s="15" t="s">
@@ -11881,9 +11871,7 @@
       <c r="T119" s="7"/>
       <c r="U119" s="21"/>
       <c r="V119" s="7"/>
-      <c r="W119" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W119" s="7"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="15" t="s">
@@ -11971,9 +11959,7 @@
       <c r="T120" s="7"/>
       <c r="U120" s="21"/>
       <c r="V120" s="7"/>
-      <c r="W120" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W120" s="7"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
       <c r="Z120" s="15" t="s">
@@ -12053,9 +12039,7 @@
       <c r="T121" s="7"/>
       <c r="U121" s="21"/>
       <c r="V121" s="7"/>
-      <c r="W121" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W121" s="7"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="15" t="s">
@@ -12135,9 +12119,7 @@
       <c r="T122" s="7"/>
       <c r="U122" s="21"/>
       <c r="V122" s="7"/>
-      <c r="W122" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W122" s="7"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
       <c r="Z122" s="15" t="s">
@@ -12217,9 +12199,7 @@
       <c r="T123" s="7"/>
       <c r="U123" s="21"/>
       <c r="V123" s="7"/>
-      <c r="W123" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W123" s="7"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="15" t="s">
@@ -12293,9 +12273,7 @@
       <c r="T124" s="7"/>
       <c r="U124" s="21"/>
       <c r="V124" s="7"/>
-      <c r="W124" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W124" s="7"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="15" t="s">
@@ -12380,9 +12358,7 @@
       <c r="T125" s="7"/>
       <c r="U125" s="21"/>
       <c r="V125" s="7"/>
-      <c r="W125" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W125" s="7"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="15" t="s">
@@ -12459,9 +12435,7 @@
         <v>422</v>
       </c>
       <c r="V126" s="7"/>
-      <c r="W126" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W126" s="7"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="15" t="s">
@@ -12540,9 +12514,7 @@
       <c r="T127" s="7"/>
       <c r="U127" s="21"/>
       <c r="V127" s="7"/>
-      <c r="W127" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="W127" s="7"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="15" t="s">
@@ -12617,13 +12589,11 @@
       <c r="T128" s="7"/>
       <c r="U128" s="21"/>
       <c r="V128" s="7"/>
-      <c r="W128" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="W128" s="7"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA128" s="7"/>
       <c r="AB128" s="7"/>
@@ -12647,7 +12617,7 @@
         <v>113</v>
       </c>
       <c r="AL128" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM128" s="7" t="n">
         <v>303</v>
@@ -12670,10 +12640,10 @@
         <v>385</v>
       </c>
       <c r="F129" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>90</v>
@@ -12704,13 +12674,11 @@
       <c r="T129" s="7"/>
       <c r="U129" s="21"/>
       <c r="V129" s="7"/>
-      <c r="W129" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="W129" s="7"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA129" s="7"/>
       <c r="AB129" s="7"/>
@@ -12753,10 +12721,10 @@
         <v>385</v>
       </c>
       <c r="F130" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>395</v>
@@ -12780,16 +12748,14 @@
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V130" s="7"/>
-      <c r="W130" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="W130" s="7"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA130" s="7"/>
       <c r="AB130" s="7"/>
@@ -12832,13 +12798,13 @@
         <v>385</v>
       </c>
       <c r="F131" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="H131" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7" t="n">
@@ -12858,13 +12824,11 @@
       <c r="T131" s="7"/>
       <c r="U131" s="21"/>
       <c r="V131" s="7"/>
-      <c r="W131" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="W131" s="7"/>
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA131" s="7"/>
       <c r="AB131" s="7"/>
@@ -12886,7 +12850,7 @@
         <v>116</v>
       </c>
       <c r="AL131" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM131" s="7" t="n">
         <v>113</v>
@@ -12909,10 +12873,10 @@
         <v>385</v>
       </c>
       <c r="F132" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>400</v>
@@ -12922,10 +12886,10 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="N132" s="24" t="s">
         <v>442</v>
-      </c>
-      <c r="N132" s="24" t="s">
-        <v>443</v>
       </c>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
@@ -12939,13 +12903,11 @@
       <c r="T132" s="7"/>
       <c r="U132" s="21"/>
       <c r="V132" s="7"/>
-      <c r="W132" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="W132" s="7"/>
       <c r="X132" s="7"/>
       <c r="Y132" s="7"/>
       <c r="Z132" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA132" s="7"/>
       <c r="AB132" s="7"/>
@@ -12959,7 +12921,7 @@
       <c r="AF132" s="7"/>
       <c r="AG132" s="7"/>
       <c r="AH132" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AI132" s="7"/>
       <c r="AJ132" s="7" t="n">
@@ -12990,10 +12952,10 @@
         <v>385</v>
       </c>
       <c r="F133" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>400</v>
@@ -13003,10 +12965,10 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="N133" s="24" t="s">
         <v>447</v>
-      </c>
-      <c r="N133" s="24" t="s">
-        <v>448</v>
       </c>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
@@ -13020,13 +12982,11 @@
       <c r="T133" s="7"/>
       <c r="U133" s="21"/>
       <c r="V133" s="7"/>
-      <c r="W133" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="W133" s="7"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
@@ -13040,7 +13000,7 @@
       <c r="AF133" s="7"/>
       <c r="AG133" s="7"/>
       <c r="AH133" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AI133" s="7"/>
       <c r="AJ133" s="7" t="n">
@@ -13068,16 +13028,16 @@
         <v>41</v>
       </c>
       <c r="E134" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F134" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="H134" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -13088,7 +13048,7 @@
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
       <c r="Q134" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
@@ -13113,7 +13073,7 @@
       <c r="AF134" s="7"/>
       <c r="AG134" s="7"/>
       <c r="AH134" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AI134" s="7"/>
       <c r="AJ134" s="7" t="n">
@@ -13123,7 +13083,7 @@
         <v>119</v>
       </c>
       <c r="AL134" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM134" s="7" t="n">
         <v>311</v>
@@ -13143,16 +13103,16 @@
         <v>41</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F135" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="H135" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7" t="n">
@@ -13166,20 +13126,20 @@
         <v>312</v>
       </c>
       <c r="N135" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
       <c r="V135" s="7"/>
       <c r="W135" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
@@ -13222,16 +13182,16 @@
         <v>41</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F136" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="H136" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7" t="n">
@@ -13243,20 +13203,20 @@
         <v>312</v>
       </c>
       <c r="N136" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
       <c r="Q136" s="7"/>
       <c r="R136" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
       <c r="U136" s="7"/>
       <c r="V136" s="7"/>
       <c r="W136" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X136" s="7"/>
       <c r="Y136" s="7"/>
@@ -13302,10 +13262,10 @@
         <v>317</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>395</v>
@@ -13322,16 +13282,16 @@
       <c r="P137" s="11"/>
       <c r="Q137" s="7"/>
       <c r="R137" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
       <c r="U137" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V137" s="7"/>
       <c r="W137" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
@@ -13350,10 +13310,10 @@
       <c r="AF137" s="7"/>
       <c r="AG137" s="7"/>
       <c r="AH137" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI137" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ137" s="7" t="n">
         <v>2</v>
@@ -13383,13 +13343,13 @@
         <v>317</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="H138" s="26" t="s">
         <v>473</v>
-      </c>
-      <c r="H138" s="26" t="s">
-        <v>474</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -13403,20 +13363,20 @@
         <v>312</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
       <c r="Q138" s="7"/>
       <c r="R138" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
       <c r="V138" s="7"/>
       <c r="W138" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
@@ -13435,10 +13395,10 @@
       <c r="AF138" s="7"/>
       <c r="AG138" s="7"/>
       <c r="AH138" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI138" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ138" s="7" t="n">
         <v>2</v>
@@ -13468,10 +13428,10 @@
         <v>317</v>
       </c>
       <c r="F139" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>84</v>
@@ -13493,7 +13453,7 @@
       <c r="U139" s="7"/>
       <c r="V139" s="7"/>
       <c r="W139" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X139" s="7"/>
       <c r="Y139" s="7"/>
@@ -13504,7 +13464,7 @@
         <v>85</v>
       </c>
       <c r="AD139" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AE139" s="9" t="n">
         <v>0.025</v>
@@ -13516,10 +13476,10 @@
         <v>1</v>
       </c>
       <c r="AH139" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI139" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ139" s="7" t="n">
         <v>2</v>
@@ -13528,7 +13488,7 @@
         <v>124</v>
       </c>
       <c r="AL139" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AM139" s="7" t="n">
         <v>312</v>
@@ -13549,10 +13509,10 @@
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>311</v>
@@ -13564,30 +13524,30 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N140" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="N140" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="O140" s="11"/>
       <c r="P140" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q140" s="7" t="s">
         <v>92</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
       <c r="V140" s="7"/>
       <c r="W140" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X140" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
@@ -13597,16 +13557,16 @@
         <v>85</v>
       </c>
       <c r="AD140" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AE140" s="9"/>
       <c r="AF140" s="7"/>
       <c r="AG140" s="7"/>
       <c r="AH140" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI140" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ140" s="7" t="n">
         <v>3</v>
@@ -13634,10 +13594,10 @@
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>311</v>
@@ -13649,30 +13609,30 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N141" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="N141" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="O141" s="11"/>
       <c r="P141" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q141" s="7" t="s">
         <v>92</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
       <c r="V141" s="7"/>
       <c r="W141" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X141" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
@@ -13682,16 +13642,16 @@
         <v>85</v>
       </c>
       <c r="AD141" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AE141" s="9"/>
       <c r="AF141" s="7"/>
       <c r="AG141" s="7"/>
       <c r="AH141" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI141" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ141" s="7" t="n">
         <v>3</v>
@@ -13719,13 +13679,13 @@
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>489</v>
-      </c>
       <c r="H142" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7" t="n">
@@ -13746,7 +13706,7 @@
       <c r="U142" s="7"/>
       <c r="V142" s="7"/>
       <c r="W142" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X142" s="7"/>
       <c r="Y142" s="7"/>
@@ -13757,16 +13717,16 @@
         <v>85</v>
       </c>
       <c r="AD142" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AE142" s="9"/>
       <c r="AF142" s="7"/>
       <c r="AG142" s="7"/>
       <c r="AH142" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI142" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ142" s="7" t="n">
         <v>3</v>
@@ -13775,7 +13735,7 @@
         <v>128</v>
       </c>
       <c r="AL142" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM142" s="7" t="n">
         <v>124</v>
@@ -13796,10 +13756,10 @@
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>90</v>
@@ -13811,27 +13771,27 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N143" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="N143" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="O143" s="11"/>
       <c r="P143" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q143" s="7" t="s">
         <v>92</v>
       </c>
       <c r="R143" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
       <c r="V143" s="7"/>
       <c r="W143" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
@@ -13850,10 +13810,10 @@
       <c r="AF143" s="7"/>
       <c r="AG143" s="7"/>
       <c r="AH143" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI143" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ143" s="7" t="n">
         <v>4</v>
@@ -13881,10 +13841,10 @@
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>90</v>
@@ -13896,27 +13856,27 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="N144" s="28" t="s">
         <v>495</v>
-      </c>
-      <c r="N144" s="28" t="s">
-        <v>496</v>
       </c>
       <c r="O144" s="11"/>
       <c r="P144" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q144" s="7" t="s">
         <v>92</v>
       </c>
       <c r="R144" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
       <c r="U144" s="7"/>
       <c r="V144" s="7"/>
       <c r="W144" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X144" s="7"/>
       <c r="Y144" s="7"/>
@@ -13935,10 +13895,10 @@
       <c r="AF144" s="7"/>
       <c r="AG144" s="7"/>
       <c r="AH144" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI144" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ144" s="7" t="n">
         <v>4</v>
@@ -13966,13 +13926,13 @@
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="H145" s="26" t="s">
         <v>498</v>
-      </c>
-      <c r="H145" s="26" t="s">
-        <v>499</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7" t="n">
@@ -13984,7 +13944,7 @@
         <v>312</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
@@ -13992,14 +13952,14 @@
         <v>92</v>
       </c>
       <c r="R145" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
       <c r="U145" s="7"/>
       <c r="V145" s="7"/>
       <c r="W145" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
@@ -14016,10 +13976,10 @@
       <c r="AF145" s="7"/>
       <c r="AG145" s="7"/>
       <c r="AH145" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI145" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ145" s="7" t="n">
         <v>3</v>
@@ -14049,13 +14009,13 @@
         <v>317</v>
       </c>
       <c r="F146" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G146" s="7" t="s">
+      <c r="H146" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -14063,20 +14023,20 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
       <c r="N146" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
       <c r="Q146" s="7"/>
       <c r="R146" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
       <c r="U146" s="7"/>
       <c r="V146" s="7"/>
       <c r="W146" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
@@ -14095,10 +14055,10 @@
       <c r="AF146" s="7"/>
       <c r="AG146" s="7"/>
       <c r="AH146" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI146" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ146" s="7" t="n">
         <v>2</v>
@@ -14128,13 +14088,13 @@
         <v>317</v>
       </c>
       <c r="F147" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>504</v>
-      </c>
       <c r="H147" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7" t="n">
@@ -14155,7 +14115,7 @@
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
       <c r="W147" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
@@ -14205,13 +14165,13 @@
         <v>317</v>
       </c>
       <c r="F148" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="G148" s="7" t="s">
+      <c r="H148" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7" t="n">
@@ -14225,7 +14185,7 @@
         <v>312</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
@@ -14233,14 +14193,14 @@
         <v>92</v>
       </c>
       <c r="R148" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
       <c r="U148" s="7"/>
       <c r="V148" s="7"/>
       <c r="W148" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X148" s="7"/>
       <c r="Y148" s="7"/>
@@ -14251,13 +14211,13 @@
         <v>85</v>
       </c>
       <c r="AD148" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AE148" s="9"/>
       <c r="AF148" s="7"/>
       <c r="AG148" s="7"/>
       <c r="AH148" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI148" s="7"/>
       <c r="AJ148" s="7" t="n">
@@ -14288,10 +14248,10 @@
         <v>317</v>
       </c>
       <c r="F149" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>84</v>
@@ -14334,7 +14294,7 @@
         <v>136</v>
       </c>
       <c r="AL149" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AM149" s="7" t="n">
         <v>400</v>
@@ -14357,13 +14317,13 @@
         <v>317</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="H150" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7" t="n">
@@ -14373,7 +14333,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
@@ -14381,7 +14341,7 @@
         <v>92</v>
       </c>
       <c r="R150" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S150" s="7"/>
       <c r="T150" s="7"/>
@@ -14389,7 +14349,7 @@
       <c r="V150" s="7"/>
       <c r="W150" s="7"/>
       <c r="X150" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y150" s="7"/>
       <c r="Z150" s="15"/>
@@ -14436,13 +14396,13 @@
         <v>317</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>518</v>
-      </c>
       <c r="H151" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7" t="n">
@@ -14452,7 +14412,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
@@ -14460,7 +14420,7 @@
         <v>92</v>
       </c>
       <c r="R151" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
@@ -14468,7 +14428,7 @@
       <c r="V151" s="7"/>
       <c r="W151" s="7"/>
       <c r="X151" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y151" s="7"/>
       <c r="Z151" s="15"/>
@@ -14513,13 +14473,13 @@
         <v>317</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="G152" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="H152" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7" t="n">
@@ -14529,7 +14489,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
@@ -14537,7 +14497,7 @@
         <v>92</v>
       </c>
       <c r="R152" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
@@ -14545,7 +14505,7 @@
       <c r="V152" s="7"/>
       <c r="W152" s="7"/>
       <c r="X152" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Y152" s="7"/>
       <c r="Z152" s="15"/>
@@ -14590,13 +14550,13 @@
         <v>317</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="G153" s="7" t="s">
-        <v>524</v>
-      </c>
       <c r="H153" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7" t="n">
@@ -14606,7 +14566,7 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
@@ -14614,7 +14574,7 @@
         <v>92</v>
       </c>
       <c r="R153" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
@@ -14622,7 +14582,7 @@
       <c r="V153" s="7"/>
       <c r="W153" s="7"/>
       <c r="X153" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y153" s="7"/>
       <c r="Z153" s="15"/>
@@ -14663,22 +14623,22 @@
         <v>40</v>
       </c>
       <c r="D154" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E154" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E154" s="29" t="s">
+      <c r="F154" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="F154" s="29" t="s">
+      <c r="G154" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="H154" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="I154" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="I154" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -14690,7 +14650,7 @@
       <c r="Q154" s="7"/>
       <c r="R154" s="7"/>
       <c r="S154" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
@@ -14728,22 +14688,22 @@
         <v>40</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E155" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F155" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="G155" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="G155" s="16" t="s">
-        <v>536</v>
-      </c>
       <c r="H155" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="I155" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -14755,7 +14715,7 @@
       <c r="Q155" s="7"/>
       <c r="R155" s="7"/>
       <c r="S155" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T155" s="7"/>
       <c r="U155" s="7"/>
@@ -14778,7 +14738,7 @@
         <v>142</v>
       </c>
       <c r="AL155" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM155" s="7"/>
     </row>
@@ -14793,36 +14753,36 @@
         <v>40</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E156" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="F156" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="F156" s="29" t="s">
+      <c r="G156" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="H156" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="G156" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="H156" s="7" t="s">
+      <c r="I156" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
       <c r="N156" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O156" s="7"/>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
       <c r="R156" s="7"/>
       <c r="S156" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T156" s="7"/>
       <c r="U156" s="7"/>
@@ -14858,22 +14818,22 @@
         <v>40</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E157" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="F157" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="F157" s="29" t="s">
+      <c r="G157" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="H157" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="I157" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -14885,7 +14845,7 @@
       <c r="Q157" s="7"/>
       <c r="R157" s="7"/>
       <c r="S157" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
@@ -14921,22 +14881,22 @@
         <v>40</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E158" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="F158" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="F158" s="29" t="s">
+      <c r="G158" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="H158" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="H158" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="I158" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -14948,7 +14908,7 @@
       <c r="Q158" s="7"/>
       <c r="R158" s="7"/>
       <c r="S158" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T158" s="7"/>
       <c r="U158" s="7"/>
@@ -14986,36 +14946,36 @@
         <v>40</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E159" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="F159" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="F159" s="29" t="s">
+      <c r="G159" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="H159" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="H159" s="7" t="s">
-        <v>555</v>
-      </c>
       <c r="I159" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O159" s="7"/>
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
       <c r="R159" s="7"/>
       <c r="S159" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T159" s="7"/>
       <c r="U159" s="7"/>
@@ -15051,22 +15011,22 @@
         <v>40</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E160" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="F160" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="F160" s="29" t="s">
+      <c r="G160" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="H160" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="H160" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="I160" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -15080,7 +15040,7 @@
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
       <c r="S160" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
@@ -15116,38 +15076,38 @@
         <v>40</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E161" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="F161" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="F161" s="29" t="s">
+      <c r="G161" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="G161" s="29" t="s">
-        <v>564</v>
-      </c>
       <c r="H161" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="I161" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="I161" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="N161" s="13" t="s">
         <v>565</v>
-      </c>
-      <c r="N161" s="13" t="s">
-        <v>566</v>
       </c>
       <c r="O161" s="7"/>
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
       <c r="R161" s="7"/>
       <c r="S161" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
@@ -15185,38 +15145,38 @@
         <v>40</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E162" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="F162" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="F162" s="29" t="s">
+      <c r="G162" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="G162" s="29" t="s">
-        <v>564</v>
-      </c>
       <c r="H162" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="I162" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="N162" s="13" t="s">
         <v>565</v>
-      </c>
-      <c r="N162" s="13" t="s">
-        <v>566</v>
       </c>
       <c r="O162" s="7"/>
       <c r="P162" s="7"/>
       <c r="Q162" s="7"/>
       <c r="R162" s="7"/>
       <c r="S162" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T162" s="7"/>
       <c r="U162" s="7"/>
@@ -15254,38 +15214,38 @@
         <v>40</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E163" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="F163" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="F163" s="29" t="s">
+      <c r="G163" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="G163" s="29" t="s">
-        <v>564</v>
-      </c>
       <c r="H163" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="I163" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N163" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O163" s="7"/>
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
       <c r="R163" s="7"/>
       <c r="S163" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T163" s="7"/>
       <c r="U163" s="7"/>
@@ -15323,38 +15283,38 @@
         <v>40</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E164" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="F164" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="F164" s="29" t="s">
+      <c r="G164" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="G164" s="29" t="s">
-        <v>564</v>
-      </c>
       <c r="H164" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="I164" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N164" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O164" s="7"/>
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
       <c r="R164" s="7"/>
       <c r="S164" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T164" s="7"/>
       <c r="U164" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола Зеро - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
     <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й</t>
   </si>
   <si>
     <t xml:space="preserve">110
@@ -2039,7 +2039,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2129,6 +2129,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2256,49 +2260,49 @@
   </sheetPr>
   <dimension ref="A1:AO164"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A115" activeCellId="0" sqref="A115"/>
+      <selection pane="bottomLeft" activeCell="J120" activeCellId="0" sqref="J120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="55.8097165991903"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.412955465587"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
@@ -12122,8 +12126,8 @@
       <c r="W122" s="7"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
-      <c r="Z122" s="15" t="s">
-        <v>412</v>
+      <c r="Z122" s="23" t="s">
+        <v>389</v>
       </c>
       <c r="AA122" s="7"/>
       <c r="AB122" s="7"/>
@@ -12167,10 +12171,10 @@
         <v>317</v>
       </c>
       <c r="F123" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>90</v>
@@ -12247,10 +12251,10 @@
         <v>385</v>
       </c>
       <c r="F124" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>388</v>
@@ -12277,7 +12281,7 @@
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="15" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
@@ -12362,7 +12366,7 @@
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="15" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
@@ -12439,7 +12443,7 @@
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="15" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AA126" s="7"/>
       <c r="AB126" s="7"/>
@@ -12518,7 +12522,7 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="15" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AA127" s="7"/>
       <c r="AB127" s="7"/>
@@ -12885,10 +12889,10 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="23" t="s">
+      <c r="M132" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N132" s="24" t="s">
+      <c r="N132" s="25" t="s">
         <v>442</v>
       </c>
       <c r="O132" s="11"/>
@@ -12964,10 +12968,10 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="23" t="s">
+      <c r="M133" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="N133" s="24" t="s">
+      <c r="N133" s="25" t="s">
         <v>447</v>
       </c>
       <c r="O133" s="11"/>
@@ -13118,7 +13122,7 @@
       <c r="J135" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="K135" s="23" t="n">
+      <c r="K135" s="24" t="n">
         <v>24</v>
       </c>
       <c r="L135" s="7"/>
@@ -13286,7 +13290,7 @@
       </c>
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
-      <c r="U137" s="25" t="s">
+      <c r="U137" s="26" t="s">
         <v>469</v>
       </c>
       <c r="V137" s="7"/>
@@ -13348,7 +13352,7 @@
       <c r="G138" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="H138" s="26" t="s">
+      <c r="H138" s="27" t="s">
         <v>473</v>
       </c>
       <c r="I138" s="7"/>
@@ -13469,7 +13473,7 @@
       <c r="AE139" s="9" t="n">
         <v>0.025</v>
       </c>
-      <c r="AF139" s="27" t="n">
+      <c r="AF139" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="AG139" s="7" t="n">
@@ -13855,14 +13859,14 @@
       </c>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
-      <c r="M144" s="25" t="s">
+      <c r="M144" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="N144" s="28" t="s">
+      <c r="N144" s="29" t="s">
         <v>495</v>
       </c>
       <c r="O144" s="11"/>
-      <c r="P144" s="28" t="s">
+      <c r="P144" s="29" t="s">
         <v>495</v>
       </c>
       <c r="Q144" s="7" t="s">
@@ -13931,7 +13935,7 @@
       <c r="G145" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="H145" s="26" t="s">
+      <c r="H145" s="27" t="s">
         <v>498</v>
       </c>
       <c r="I145" s="7"/>
@@ -14084,7 +14088,7 @@
       <c r="D147" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="29" t="s">
+      <c r="E147" s="30" t="s">
         <v>317</v>
       </c>
       <c r="F147" s="7" t="s">
@@ -14161,7 +14165,7 @@
       <c r="D148" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E148" s="30" t="s">
         <v>317</v>
       </c>
       <c r="F148" s="7" t="s">
@@ -14565,7 +14569,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
-      <c r="N153" s="30" t="s">
+      <c r="N153" s="31" t="s">
         <v>524</v>
       </c>
       <c r="O153" s="11"/>
@@ -14581,7 +14585,7 @@
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
       <c r="W153" s="7"/>
-      <c r="X153" s="30" t="s">
+      <c r="X153" s="31" t="s">
         <v>525</v>
       </c>
       <c r="Y153" s="7"/>
@@ -14625,13 +14629,13 @@
       <c r="D154" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E154" s="29" t="s">
+      <c r="E154" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="F154" s="29" t="s">
+      <c r="F154" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="G154" s="30" t="s">
         <v>529</v>
       </c>
       <c r="H154" s="7" t="s">
@@ -14664,7 +14668,7 @@
       <c r="AC154" s="7"/>
       <c r="AD154" s="7"/>
       <c r="AE154" s="9"/>
-      <c r="AF154" s="31"/>
+      <c r="AF154" s="32"/>
       <c r="AG154" s="7"/>
       <c r="AH154" s="7"/>
       <c r="AI154" s="7"/>
@@ -14729,7 +14733,7 @@
       <c r="AC155" s="7"/>
       <c r="AD155" s="7"/>
       <c r="AE155" s="9"/>
-      <c r="AF155" s="31"/>
+      <c r="AF155" s="32"/>
       <c r="AG155" s="7"/>
       <c r="AH155" s="7"/>
       <c r="AI155" s="7"/>
@@ -14755,13 +14759,13 @@
       <c r="D156" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E156" s="29" t="s">
+      <c r="E156" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="F156" s="29" t="s">
+      <c r="F156" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="G156" s="29" t="s">
+      <c r="G156" s="30" t="s">
         <v>509</v>
       </c>
       <c r="H156" s="7" t="s">
@@ -14796,7 +14800,7 @@
       <c r="AC156" s="7"/>
       <c r="AD156" s="7"/>
       <c r="AE156" s="9"/>
-      <c r="AF156" s="31"/>
+      <c r="AF156" s="32"/>
       <c r="AG156" s="7"/>
       <c r="AH156" s="7"/>
       <c r="AI156" s="7"/>
@@ -14820,13 +14824,13 @@
       <c r="D157" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E157" s="29" t="s">
+      <c r="E157" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="F157" s="29" t="s">
+      <c r="F157" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G157" s="30" t="s">
         <v>544</v>
       </c>
       <c r="H157" s="7" t="s">
@@ -14859,7 +14863,7 @@
       <c r="AC157" s="7"/>
       <c r="AD157" s="7"/>
       <c r="AE157" s="9"/>
-      <c r="AF157" s="31"/>
+      <c r="AF157" s="32"/>
       <c r="AG157" s="7"/>
       <c r="AH157" s="7"/>
       <c r="AI157" s="7"/>
@@ -14883,13 +14887,13 @@
       <c r="D158" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E158" s="29" t="s">
+      <c r="E158" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="F158" s="29" t="s">
+      <c r="F158" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G158" s="30" t="s">
         <v>549</v>
       </c>
       <c r="H158" s="7" t="s">
@@ -14922,7 +14926,7 @@
       <c r="AC158" s="7"/>
       <c r="AD158" s="7"/>
       <c r="AE158" s="9"/>
-      <c r="AF158" s="31"/>
+      <c r="AF158" s="32"/>
       <c r="AG158" s="7"/>
       <c r="AH158" s="7"/>
       <c r="AI158" s="7"/>
@@ -14948,13 +14952,13 @@
       <c r="D159" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E159" s="29" t="s">
+      <c r="E159" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="F159" s="29" t="s">
+      <c r="F159" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="G159" s="30" t="s">
         <v>553</v>
       </c>
       <c r="H159" s="7" t="s">
@@ -15013,13 +15017,13 @@
       <c r="D160" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E160" s="29" t="s">
+      <c r="E160" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="F160" s="29" t="s">
+      <c r="F160" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="G160" s="30" t="s">
         <v>559</v>
       </c>
       <c r="H160" s="7" t="s">
@@ -15078,13 +15082,13 @@
       <c r="D161" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E161" s="29" t="s">
+      <c r="E161" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="F161" s="29" t="s">
+      <c r="F161" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="G161" s="30" t="s">
         <v>563</v>
       </c>
       <c r="H161" s="7" t="s">
@@ -15147,13 +15151,13 @@
       <c r="D162" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E162" s="29" t="s">
+      <c r="E162" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="F162" s="29" t="s">
+      <c r="F162" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="G162" s="29" t="s">
+      <c r="G162" s="30" t="s">
         <v>563</v>
       </c>
       <c r="H162" s="7" t="s">
@@ -15216,13 +15220,13 @@
       <c r="D163" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E163" s="29" t="s">
+      <c r="E163" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="F163" s="29" t="s">
+      <c r="F163" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="G163" s="29" t="s">
+      <c r="G163" s="30" t="s">
         <v>563</v>
       </c>
       <c r="H163" s="7" t="s">
@@ -15237,7 +15241,7 @@
       <c r="M163" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="N163" s="32" t="s">
+      <c r="N163" s="33" t="s">
         <v>566</v>
       </c>
       <c r="O163" s="7"/>
@@ -15285,13 +15289,13 @@
       <c r="D164" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E164" s="29" t="s">
+      <c r="E164" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="F164" s="29" t="s">
+      <c r="F164" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="G164" s="29" t="s">
+      <c r="G164" s="30" t="s">
         <v>563</v>
       </c>
       <c r="H164" s="7" t="s">
@@ -15306,7 +15310,7 @@
       <c r="M164" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="N164" s="32" t="s">
+      <c r="N164" s="33" t="s">
         <v>567</v>
       </c>
       <c r="O164" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$164</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="569">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1869,12 +1870,18 @@
     <t xml:space="preserve">OTG
 No_O_A</t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -1886,6 +1893,7 @@
     <numFmt numFmtId="172" formatCode="#,##0"/>
     <numFmt numFmtId="173" formatCode="D\-MMM"/>
     <numFmt numFmtId="174" formatCode="0%"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1937,7 +1945,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,6 +1986,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2036,7 +2050,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2189,6 +2203,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2271,55 +2301,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO164"/>
+  <dimension ref="1:165"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AM164" activeCellId="0" sqref="AM164:AM165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.9878542510121"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.2388663967611"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="56.663967611336"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15352,6 +15382,72 @@
       <c r="AL164" s="9"/>
       <c r="AM164" s="9"/>
     </row>
+    <row r="165" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="n">
+        <v>521</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E165" s="34"/>
+      <c r="F165" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="G165" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="37"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
+      <c r="R165" s="9"/>
+      <c r="S165" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="T165" s="9"/>
+      <c r="U165" s="9"/>
+      <c r="V165" s="9"/>
+      <c r="W165" s="9"/>
+      <c r="X165" s="9"/>
+      <c r="Y165" s="9"/>
+      <c r="Z165" s="9"/>
+      <c r="AA165" s="9"/>
+      <c r="AB165" s="9"/>
+      <c r="AC165" s="9"/>
+      <c r="AD165" s="38"/>
+      <c r="AE165" s="9"/>
+      <c r="AF165" s="9"/>
+      <c r="AG165" s="9"/>
+      <c r="AH165" s="39"/>
+      <c r="AI165" s="40"/>
+      <c r="AJ165" s="9"/>
+      <c r="AK165" s="40" t="n">
+        <v>521</v>
+      </c>
+      <c r="AL165" s="41"/>
+      <c r="AM165" s="9"/>
+      <c r="AN165" s="0"/>
+      <c r="AO165" s="0"/>
+      <c r="AP165" s="0"/>
+      <c r="AQ165" s="0"/>
+      <c r="AMJ165" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM164"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2249,54 +2250,53 @@
   </sheetPr>
   <dimension ref="A1:AO168"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="S154" activeCellId="0" sqref="S154:S168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6234817813765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.8016194331984"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9311740890688"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="90.9595141700405"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="131.113360323887"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.0283400809717"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.663967611336"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.3805668016194"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="132.291497975709"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="66.2267206477733"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.5101214574899"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.91093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14637,10 +14637,10 @@
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6" t="s">
+      <c r="R154" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S154" s="6"/>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
@@ -14702,10 +14702,10 @@
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6" t="s">
+      <c r="R155" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S155" s="6"/>
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
@@ -14771,10 +14771,10 @@
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6" t="s">
+      <c r="R156" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S156" s="6"/>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
@@ -14840,10 +14840,10 @@
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6" t="s">
+      <c r="R157" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S157" s="6"/>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
@@ -14909,10 +14909,10 @@
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6" t="s">
+      <c r="R158" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S158" s="6"/>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
@@ -14978,10 +14978,10 @@
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6" t="s">
+      <c r="R159" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S159" s="6"/>
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
@@ -15043,10 +15043,10 @@
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6" t="s">
+      <c r="R160" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S160" s="6"/>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
@@ -15108,10 +15108,10 @@
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6" t="s">
+      <c r="R161" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S161" s="6"/>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
@@ -15175,10 +15175,10 @@
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6" t="s">
+      <c r="R162" s="6" t="s">
         <v>559</v>
       </c>
+      <c r="S162" s="6"/>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
@@ -15242,10 +15242,10 @@
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6" t="s">
+      <c r="R163" s="6" t="s">
         <v>559</v>
       </c>
+      <c r="S163" s="6"/>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
@@ -15311,10 +15311,10 @@
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6" t="s">
+      <c r="R164" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S164" s="6"/>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
@@ -15380,10 +15380,10 @@
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6" t="s">
+      <c r="R165" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S165" s="6"/>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
@@ -15449,10 +15449,10 @@
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6" t="s">
+      <c r="R166" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S166" s="6"/>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
@@ -15518,10 +15518,10 @@
       <c r="O167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6" t="s">
+      <c r="R167" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S167" s="6"/>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
@@ -15581,10 +15581,10 @@
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6" t="s">
+      <c r="R168" s="6" t="s">
         <v>530</v>
       </c>
+      <c r="S168" s="6"/>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$168</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1603,7 +1604,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 door cooler</t>
+    <t xml:space="preserve">1 door cooler - Modern Trade</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -1612,7 +1613,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 30% кока-кола</t>
   </si>
   <si>
-    <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
+    <t xml:space="preserve">Company Coolers: 1st Cash Cooler, 2 door cooler - Modern Trade, Open Front - Modern Trade, Cash Cooler (Open Top) - Modern Trade, Coolers - Counter top, 1.5 door cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
@@ -1916,7 +1917,7 @@
     <numFmt numFmtId="174" formatCode="0%"/>
     <numFmt numFmtId="175" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1961,6 +1962,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2041,7 +2049,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2143,6 +2151,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="174" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2250,53 +2266,54 @@
   </sheetPr>
   <dimension ref="A1:AO168"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S154" activeCellId="0" sqref="S154:S168"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="X143" activeCellId="0" sqref="X143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="91.8016194331984"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="132.291497975709"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="92.5506072874494"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="133.46963562753"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13535,7 +13552,7 @@
       <c r="W140" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="X140" s="6" t="s">
+      <c r="X140" s="26" t="s">
         <v>482</v>
       </c>
       <c r="Y140" s="6"/>
@@ -13620,7 +13637,7 @@
       <c r="W141" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="X141" s="6" t="s">
+      <c r="X141" s="27" t="s">
         <v>485</v>
       </c>
       <c r="Y141" s="6"/>
@@ -14073,7 +14090,7 @@
       <c r="D147" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="28" t="s">
         <v>317</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -14150,7 +14167,7 @@
       <c r="D148" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="28" t="s">
         <v>317</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -14554,7 +14571,7 @@
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="6"/>
-      <c r="N153" s="27" t="s">
+      <c r="N153" s="29" t="s">
         <v>523</v>
       </c>
       <c r="O153" s="11"/>
@@ -14570,7 +14587,7 @@
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
-      <c r="X153" s="27" t="s">
+      <c r="X153" s="29" t="s">
         <v>523</v>
       </c>
       <c r="Y153" s="6"/>
@@ -14614,13 +14631,13 @@
       <c r="D154" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="F154" s="26" t="s">
+      <c r="F154" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="G154" s="26" t="s">
+      <c r="G154" s="28" t="s">
         <v>527</v>
       </c>
       <c r="H154" s="6" t="s">
@@ -14653,7 +14670,7 @@
       <c r="AC154" s="6"/>
       <c r="AD154" s="6"/>
       <c r="AE154" s="9"/>
-      <c r="AF154" s="28"/>
+      <c r="AF154" s="30"/>
       <c r="AG154" s="6"/>
       <c r="AH154" s="6"/>
       <c r="AI154" s="6"/>
@@ -14718,7 +14735,7 @@
       <c r="AC155" s="6"/>
       <c r="AD155" s="6"/>
       <c r="AE155" s="9"/>
-      <c r="AF155" s="28"/>
+      <c r="AF155" s="30"/>
       <c r="AG155" s="6"/>
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
@@ -14744,13 +14761,13 @@
       <c r="D156" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F156" s="26" t="s">
+      <c r="F156" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G156" s="26" t="s">
+      <c r="G156" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H156" s="6" t="s">
@@ -14787,7 +14804,7 @@
       <c r="AC156" s="6"/>
       <c r="AD156" s="6"/>
       <c r="AE156" s="9"/>
-      <c r="AF156" s="28"/>
+      <c r="AF156" s="30"/>
       <c r="AG156" s="6"/>
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
@@ -14813,13 +14830,13 @@
       <c r="D157" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F157" s="26" t="s">
+      <c r="F157" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G157" s="26" t="s">
+      <c r="G157" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H157" s="6" t="s">
@@ -14856,7 +14873,7 @@
       <c r="AC157" s="6"/>
       <c r="AD157" s="6"/>
       <c r="AE157" s="9"/>
-      <c r="AF157" s="28"/>
+      <c r="AF157" s="30"/>
       <c r="AG157" s="6"/>
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
@@ -14882,13 +14899,13 @@
       <c r="D158" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="F158" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G158" s="26" t="s">
+      <c r="G158" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H158" s="6" t="s">
@@ -14925,7 +14942,7 @@
       <c r="AC158" s="6"/>
       <c r="AD158" s="6"/>
       <c r="AE158" s="9"/>
-      <c r="AF158" s="28"/>
+      <c r="AF158" s="30"/>
       <c r="AG158" s="6"/>
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
@@ -14951,13 +14968,13 @@
       <c r="D159" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F159" s="26" t="s">
+      <c r="F159" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="G159" s="28" t="s">
         <v>508</v>
       </c>
       <c r="H159" s="6" t="s">
@@ -14994,7 +15011,7 @@
       <c r="AC159" s="6"/>
       <c r="AD159" s="6"/>
       <c r="AE159" s="9"/>
-      <c r="AF159" s="28"/>
+      <c r="AF159" s="30"/>
       <c r="AG159" s="6"/>
       <c r="AH159" s="6"/>
       <c r="AI159" s="6"/>
@@ -15020,13 +15037,13 @@
       <c r="D160" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="F160" s="26" t="s">
+      <c r="F160" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="G160" s="26" t="s">
+      <c r="G160" s="28" t="s">
         <v>546</v>
       </c>
       <c r="H160" s="6" t="s">
@@ -15059,7 +15076,7 @@
       <c r="AC160" s="6"/>
       <c r="AD160" s="6"/>
       <c r="AE160" s="9"/>
-      <c r="AF160" s="28"/>
+      <c r="AF160" s="30"/>
       <c r="AG160" s="6"/>
       <c r="AH160" s="6"/>
       <c r="AI160" s="6"/>
@@ -15085,13 +15102,13 @@
       <c r="D161" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="F161" s="26" t="s">
+      <c r="F161" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G161" s="28" t="s">
         <v>552</v>
       </c>
       <c r="H161" s="6" t="s">
@@ -15124,7 +15141,7 @@
       <c r="AC161" s="6"/>
       <c r="AD161" s="6"/>
       <c r="AE161" s="9"/>
-      <c r="AF161" s="28"/>
+      <c r="AF161" s="30"/>
       <c r="AG161" s="6"/>
       <c r="AH161" s="6"/>
       <c r="AI161" s="6"/>
@@ -15150,13 +15167,13 @@
       <c r="D162" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="F162" s="26" t="s">
+      <c r="F162" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="28" t="s">
         <v>556</v>
       </c>
       <c r="H162" s="6" t="s">
@@ -15217,13 +15234,13 @@
       <c r="D163" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="F163" s="26" t="s">
+      <c r="F163" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="G163" s="26" t="s">
+      <c r="G163" s="28" t="s">
         <v>562</v>
       </c>
       <c r="H163" s="6" t="s">
@@ -15284,13 +15301,13 @@
       <c r="D164" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F164" s="26" t="s">
+      <c r="F164" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H164" s="6" t="s">
@@ -15353,13 +15370,13 @@
       <c r="D165" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F165" s="26" t="s">
+      <c r="F165" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G165" s="26" t="s">
+      <c r="G165" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H165" s="6" t="s">
@@ -15422,13 +15439,13 @@
       <c r="D166" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E166" s="26" t="s">
+      <c r="E166" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F166" s="26" t="s">
+      <c r="F166" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G166" s="26" t="s">
+      <c r="G166" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H166" s="6" t="s">
@@ -15443,7 +15460,7 @@
       <c r="M166" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N166" s="29" t="s">
+      <c r="N166" s="31" t="s">
         <v>570</v>
       </c>
       <c r="O166" s="6"/>
@@ -15491,13 +15508,13 @@
       <c r="D167" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F167" s="26" t="s">
+      <c r="F167" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="G167" s="26" t="s">
+      <c r="G167" s="28" t="s">
         <v>567</v>
       </c>
       <c r="H167" s="6" t="s">
@@ -15512,7 +15529,7 @@
       <c r="M167" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N167" s="29" t="s">
+      <c r="N167" s="31" t="s">
         <v>571</v>
       </c>
       <c r="O167" s="6"/>
@@ -15560,11 +15577,11 @@
       <c r="D168" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26" t="s">
+      <c r="E168" s="28"/>
+      <c r="F168" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="G168" s="26" t="s">
+      <c r="G168" s="28" t="s">
         <v>573</v>
       </c>
       <c r="H168" s="6" t="s">
@@ -15577,7 +15594,7 @@
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="6"/>
-      <c r="N168" s="29"/>
+      <c r="N168" s="31"/>
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
@@ -15595,7 +15612,7 @@
       <c r="AA168" s="6"/>
       <c r="AB168" s="6"/>
       <c r="AC168" s="6"/>
-      <c r="AD168" s="30"/>
+      <c r="AD168" s="32"/>
       <c r="AE168" s="6"/>
       <c r="AF168" s="6"/>
       <c r="AG168" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -11,8 +11,10 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$170</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2079,51 +2081,53 @@
   </sheetPr>
   <dimension ref="A1:AM170"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F159" activeCellId="0" sqref="F159"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="AH8" activeCellId="0" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="90.9433198380567"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="130.684210526316"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="158.748987854251"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="133.04048582996"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="161.643724696356"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15468,7 +15472,7 @@
       <c r="AM170" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AM170"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$170</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AM$1</definedName>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">Dobriy - Apple - 1L, Dobriy - Apple - 0.2L</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042434877, 4607042430619</t>
+    <t xml:space="preserve">4607042434877, 4607042430619=4607042434891, 4607042430565</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">Dobriy - Multifruit - 1L, Dobriy - Multifruit - 0.2L</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042434891, 4607042430565</t>
+    <t xml:space="preserve">4607042434891, 4607042430565=4607042434877, 4607042430619</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
@@ -2163,49 +2163,49 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N117" activeCellId="0" sqref="N117"/>
+      <selection pane="bottomLeft" activeCell="N131" activeCellId="0" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="43.2753036437247"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="134.218623481781"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="163.036437246964"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="94.0485829959514"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="135.396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="164.429149797571"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.21052631578947"/>
   </cols>
@@ -15551,7 +15551,7 @@
       <c r="AM170" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AM170"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190729_1304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1704\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7310CFA-D5CC-47F0-A4ED-362CE05725CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315142D-ABB9-42DF-83E1-DF8EBAB4C81A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Small" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,14 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">'Convenience Small'!$A$1:$AM$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">'Convenience Small'!$A$1:$AM$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -357,6 +363,9 @@
   </si>
   <si>
     <t>Кока-Кола Зеро Вишня- 0.9л</t>
+  </si>
+  <si>
+    <t>5449000251626, 5449000251619</t>
   </si>
   <si>
     <t>Coca-Cola Zero - 0.5L</t>
@@ -1483,9 +1492,6 @@
     <t>Dobriy - Apple - 1L, Dobriy - Apple - 0.2L</t>
   </si>
   <si>
-    <t>4607042434877, 4607042430619=4607042434891, 4607042430565</t>
-  </si>
-  <si>
     <t>Dobriy - Apple - 1L share on Display</t>
   </si>
   <si>
@@ -1496,9 +1502,6 @@
   </si>
   <si>
     <t>Dobriy - Multifruit - 1L, Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>4607042434891, 4607042430565=4607042434877, 4607042430619</t>
   </si>
   <si>
     <t>Dobriy - Multifruit - 1L share on Display</t>
@@ -1940,7 +1943,10 @@
     <t>Plan</t>
   </si>
   <si>
-    <t>5449000251626, 5449000251619</t>
+    <t>4607042434877, 4607042430619</t>
+  </si>
+  <si>
+    <t>4607042434891, 4607042430565</t>
   </si>
 </sst>
 </file>
@@ -1984,14 +1990,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -2050,10 +2056,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2106,7 +2112,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -2440,52 +2446,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK170"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="M17:N17"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1"/>
-    <col min="3" max="3" width="23.21875" style="1"/>
-    <col min="4" max="4" width="15.33203125" style="1"/>
+    <col min="2" max="2" width="15.88671875" style="1"/>
+    <col min="3" max="3" width="23.33203125" style="1"/>
+    <col min="4" max="4" width="15.44140625" style="1"/>
     <col min="5" max="5" width="16.44140625" style="1"/>
-    <col min="6" max="6" width="53.88671875" style="1"/>
-    <col min="7" max="7" width="74.21875" style="1"/>
-    <col min="8" max="8" width="54.33203125" style="1"/>
-    <col min="9" max="9" width="21.21875" style="1"/>
-    <col min="10" max="10" width="12.88671875" style="1"/>
-    <col min="11" max="11" width="18" style="1"/>
-    <col min="12" max="12" width="18.33203125" style="1"/>
-    <col min="13" max="13" width="66.33203125" style="1"/>
-    <col min="14" max="14" width="43.21875" style="1"/>
-    <col min="15" max="15" width="26" style="1"/>
+    <col min="6" max="6" width="54.33203125" style="1"/>
+    <col min="7" max="7" width="74.88671875" style="1"/>
+    <col min="8" max="8" width="54.77734375" style="1"/>
+    <col min="9" max="9" width="21.33203125" style="1"/>
+    <col min="10" max="10" width="13" style="1"/>
+    <col min="11" max="11" width="18.109375" style="1"/>
+    <col min="12" max="12" width="18.44140625" style="1"/>
+    <col min="13" max="13" width="67" style="1"/>
+    <col min="14" max="14" width="43.5546875" style="1"/>
+    <col min="15" max="15" width="26.109375" style="1"/>
     <col min="16" max="16" width="11.77734375" style="1"/>
-    <col min="17" max="17" width="25.33203125" style="1"/>
-    <col min="18" max="18" width="15" style="1"/>
+    <col min="17" max="17" width="25.44140625" style="1"/>
+    <col min="18" max="18" width="15.109375" style="1"/>
     <col min="19" max="19" width="10.33203125" style="1"/>
-    <col min="20" max="20" width="19.33203125" style="1"/>
-    <col min="21" max="21" width="94" style="1"/>
-    <col min="22" max="22" width="30.44140625" style="1"/>
-    <col min="23" max="23" width="135.44140625" style="1"/>
-    <col min="24" max="24" width="164.44140625" style="1"/>
-    <col min="25" max="25" width="27.6640625" style="1"/>
-    <col min="26" max="26" width="34.44140625" style="1"/>
-    <col min="27" max="27" width="35.21875" style="1"/>
-    <col min="28" max="28" width="21" style="1"/>
-    <col min="29" max="29" width="18.77734375" style="1"/>
-    <col min="30" max="30" width="18.6640625" style="1"/>
-    <col min="31" max="31" width="18" style="2"/>
-    <col min="32" max="32" width="17.21875" style="1"/>
-    <col min="33" max="33" width="18" style="1"/>
-    <col min="34" max="34" width="70" style="1"/>
-    <col min="35" max="35" width="24.6640625" style="1"/>
+    <col min="20" max="20" width="19.44140625" style="1"/>
+    <col min="21" max="21" width="94.77734375" style="1"/>
+    <col min="22" max="22" width="30.6640625" style="1"/>
+    <col min="23" max="23" width="136.6640625" style="1"/>
+    <col min="24" max="24" width="165.88671875" style="1"/>
+    <col min="25" max="25" width="27.88671875" style="1"/>
+    <col min="26" max="26" width="34.6640625" style="1"/>
+    <col min="27" max="27" width="35.44140625" style="1"/>
+    <col min="28" max="28" width="21.109375" style="1"/>
+    <col min="29" max="29" width="18.88671875" style="1"/>
+    <col min="30" max="30" width="18.77734375" style="1"/>
+    <col min="31" max="31" width="18.109375" style="2"/>
+    <col min="32" max="32" width="17.33203125" style="1"/>
+    <col min="33" max="33" width="18.109375" style="1"/>
+    <col min="34" max="34" width="70.5546875" style="1"/>
+    <col min="35" max="35" width="24.88671875" style="1"/>
     <col min="36" max="36" width="10.44140625" style="1"/>
     <col min="37" max="37" width="11.77734375" style="1"/>
-    <col min="38" max="38" width="15" style="1"/>
-    <col min="39" max="39" width="12.88671875" style="1"/>
+    <col min="38" max="38" width="15.109375" style="1"/>
+    <col min="39" max="39" width="13" style="1"/>
     <col min="40" max="1025" width="9.21875" style="1"/>
   </cols>
   <sheetData>
@@ -3848,11 +3854,11 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>586</v>
+      <c r="N17" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -3917,10 +3923,10 @@
         <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -3932,10 +3938,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -4000,10 +4006,10 @@
         <v>45</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>54</v>
@@ -4015,10 +4021,10 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -4083,10 +4089,10 @@
         <v>45</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>54</v>
@@ -4098,10 +4104,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -4166,10 +4172,10 @@
         <v>45</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>54</v>
@@ -4181,10 +4187,10 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -4249,10 +4255,10 @@
         <v>45</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>54</v>
@@ -4264,10 +4270,10 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -4332,10 +4338,10 @@
         <v>45</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>54</v>
@@ -4347,10 +4353,10 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -4415,10 +4421,10 @@
         <v>45</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>54</v>
@@ -4430,10 +4436,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -4498,10 +4504,10 @@
         <v>45</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>54</v>
@@ -4513,10 +4519,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -4581,10 +4587,10 @@
         <v>45</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>54</v>
@@ -4596,10 +4602,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -4664,10 +4670,10 @@
         <v>45</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>54</v>
@@ -4679,7 +4685,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N27" s="6">
         <v>5449000098917</v>
@@ -4747,10 +4753,10 @@
         <v>45</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>54</v>
@@ -4762,10 +4768,10 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -4830,10 +4836,10 @@
         <v>45</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>54</v>
@@ -4845,10 +4851,10 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -4910,13 +4916,13 @@
         <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>48</v>
@@ -4959,7 +4965,7 @@
         <v>26</v>
       </c>
       <c r="AL30" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM30" s="6">
         <v>300</v>
@@ -4979,13 +4985,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -4997,10 +5003,10 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -5062,13 +5068,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -5080,10 +5086,10 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -5145,13 +5151,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -5163,10 +5169,10 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -5228,13 +5234,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>54</v>
@@ -5246,10 +5252,10 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -5311,13 +5317,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>48</v>
@@ -5360,7 +5366,7 @@
         <v>31</v>
       </c>
       <c r="AL35" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM35" s="6">
         <v>300</v>
@@ -5380,13 +5386,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -5398,10 +5404,10 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -5463,13 +5469,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -5481,10 +5487,10 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -5546,13 +5552,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -5564,10 +5570,10 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -5629,13 +5635,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -5647,10 +5653,10 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -5712,13 +5718,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>48</v>
@@ -5761,7 +5767,7 @@
         <v>36</v>
       </c>
       <c r="AL40" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM40" s="6">
         <v>300</v>
@@ -5781,13 +5787,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>54</v>
@@ -5799,10 +5805,10 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -5864,13 +5870,13 @@
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -5882,10 +5888,10 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -5947,13 +5953,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -5965,10 +5971,10 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -6030,13 +6036,13 @@
         <v>41</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -6048,10 +6054,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -6113,13 +6119,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>54</v>
@@ -6131,10 +6137,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -6196,13 +6202,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>48</v>
@@ -6245,7 +6251,7 @@
         <v>42</v>
       </c>
       <c r="AL46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM46" s="6">
         <v>300</v>
@@ -6265,13 +6271,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>54</v>
@@ -6283,10 +6289,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -6348,13 +6354,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>54</v>
@@ -6366,10 +6372,10 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -6431,13 +6437,13 @@
         <v>41</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>54</v>
@@ -6449,10 +6455,10 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -6514,13 +6520,13 @@
         <v>41</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>54</v>
@@ -6532,10 +6538,10 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -6597,13 +6603,13 @@
         <v>41</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>54</v>
@@ -6615,10 +6621,10 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -6680,13 +6686,13 @@
         <v>41</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>54</v>
@@ -6698,10 +6704,10 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -6763,13 +6769,13 @@
         <v>41</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>54</v>
@@ -6781,10 +6787,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -6846,13 +6852,13 @@
         <v>41</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>54</v>
@@ -6864,10 +6870,10 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -6929,13 +6935,13 @@
         <v>41</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>54</v>
@@ -6947,10 +6953,10 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -7012,13 +7018,13 @@
         <v>41</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>54</v>
@@ -7030,10 +7036,10 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -7095,13 +7101,13 @@
         <v>41</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>54</v>
@@ -7113,10 +7119,10 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -7178,13 +7184,13 @@
         <v>41</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>54</v>
@@ -7196,10 +7202,10 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -7261,13 +7267,13 @@
         <v>41</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>54</v>
@@ -7279,10 +7285,10 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -7344,13 +7350,13 @@
         <v>41</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>54</v>
@@ -7362,10 +7368,10 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
@@ -7427,13 +7433,13 @@
         <v>41</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>54</v>
@@ -7445,10 +7451,10 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -7510,13 +7516,13 @@
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>54</v>
@@ -7528,10 +7534,10 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
@@ -7593,13 +7599,13 @@
         <v>41</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>54</v>
@@ -7611,10 +7617,10 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -7676,13 +7682,13 @@
         <v>41</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>54</v>
@@ -7694,10 +7700,10 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -7759,13 +7765,13 @@
         <v>41</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>54</v>
@@ -7777,10 +7783,10 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
@@ -7842,13 +7848,13 @@
         <v>41</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>54</v>
@@ -7860,10 +7866,10 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
@@ -7925,13 +7931,13 @@
         <v>41</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>54</v>
@@ -7943,10 +7949,10 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
@@ -8008,13 +8014,13 @@
         <v>41</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>54</v>
@@ -8026,10 +8032,10 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
@@ -8091,13 +8097,13 @@
         <v>41</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>54</v>
@@ -8109,10 +8115,10 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -8174,13 +8180,13 @@
         <v>41</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>54</v>
@@ -8192,10 +8198,10 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -8257,13 +8263,13 @@
         <v>41</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>54</v>
@@ -8275,10 +8281,10 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -8340,13 +8346,13 @@
         <v>41</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>54</v>
@@ -8358,10 +8364,10 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -8423,13 +8429,13 @@
         <v>41</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>54</v>
@@ -8441,7 +8447,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N73" s="6">
         <v>4650075422922</v>
@@ -8506,13 +8512,13 @@
         <v>41</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>54</v>
@@ -8524,10 +8530,10 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -8589,13 +8595,13 @@
         <v>41</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>54</v>
@@ -8607,7 +8613,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N75" s="6">
         <v>4650075421550</v>
@@ -8672,13 +8678,13 @@
         <v>41</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>54</v>
@@ -8690,10 +8696,10 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
@@ -8755,13 +8761,13 @@
         <v>41</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>54</v>
@@ -8773,10 +8779,10 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
@@ -8839,10 +8845,10 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>41</v>
@@ -8881,7 +8887,7 @@
         <v>520</v>
       </c>
       <c r="AL78" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM78" s="6"/>
     </row>
@@ -8900,10 +8906,10 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>41</v>
@@ -8942,7 +8948,7 @@
         <v>501</v>
       </c>
       <c r="AL79" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM79" s="6">
         <v>520</v>
@@ -8959,19 +8965,19 @@
         <v>40</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6">
@@ -8980,27 +8986,27 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
@@ -9011,7 +9017,7 @@
         <v>49</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE80" s="7">
         <v>6.25E-2</v>
@@ -9042,19 +9048,19 @@
         <v>40</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6">
@@ -9067,7 +9073,7 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
@@ -9075,14 +9081,14 @@
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC81" s="6" t="s">
         <v>49</v>
@@ -9104,7 +9110,7 @@
         <v>75</v>
       </c>
       <c r="AL81" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM81" s="6">
         <v>501</v>
@@ -9121,16 +9127,16 @@
         <v>40</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>54</v>
@@ -9160,14 +9166,14 @@
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC82" s="6" t="s">
         <v>49</v>
@@ -9202,16 +9208,16 @@
         <v>40</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>54</v>
@@ -9223,7 +9229,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N83" s="6" t="s">
         <v>55</v>
@@ -9241,14 +9247,14 @@
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>49</v>
@@ -9283,16 +9289,16 @@
         <v>40</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>54</v>
@@ -9304,7 +9310,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N84" s="6">
         <v>5449000131836</v>
@@ -9322,14 +9328,14 @@
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>49</v>
@@ -9364,16 +9370,16 @@
         <v>40</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>54</v>
@@ -9385,7 +9391,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N85" s="6">
         <v>54491069</v>
@@ -9403,14 +9409,14 @@
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC85" s="6" t="s">
         <v>49</v>
@@ -9445,16 +9451,16 @@
         <v>40</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>54</v>
@@ -9466,7 +9472,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N86" s="6" t="s">
         <v>78</v>
@@ -9484,14 +9490,14 @@
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>49</v>
@@ -9526,16 +9532,16 @@
         <v>40</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>54</v>
@@ -9547,7 +9553,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N87" s="6">
         <v>40822938</v>
@@ -9565,14 +9571,14 @@
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC87" s="6" t="s">
         <v>49</v>
@@ -9607,16 +9613,16 @@
         <v>40</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>54</v>
@@ -9628,7 +9634,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>75</v>
@@ -9646,14 +9652,14 @@
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC88" s="6" t="s">
         <v>49</v>
@@ -9688,16 +9694,16 @@
         <v>40</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>54</v>
@@ -9727,14 +9733,14 @@
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC89" s="6" t="s">
         <v>49</v>
@@ -9769,16 +9775,16 @@
         <v>40</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>54</v>
@@ -9790,7 +9796,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N90" s="6">
         <v>5449000064110</v>
@@ -9808,14 +9814,14 @@
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC90" s="6" t="s">
         <v>49</v>
@@ -9854,10 +9860,10 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>41</v>
@@ -9896,7 +9902,7 @@
         <v>502</v>
       </c>
       <c r="AL91" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM91" s="6">
         <v>520</v>
@@ -9916,16 +9922,16 @@
         <v>41</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6">
@@ -9934,27 +9940,27 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P92" s="6"/>
       <c r="Q92" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
@@ -9965,7 +9971,7 @@
         <v>49</v>
       </c>
       <c r="AD92" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE92" s="7">
         <v>5.2499999999999998E-2</v>
@@ -9996,19 +10002,19 @@
         <v>40</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6">
@@ -10021,7 +10027,7 @@
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
@@ -10029,14 +10035,14 @@
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC93" s="6" t="s">
         <v>49</v>
@@ -10058,7 +10064,7 @@
         <v>86</v>
       </c>
       <c r="AL93" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM93" s="6">
         <v>502</v>
@@ -10075,16 +10081,16 @@
         <v>40</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>54</v>
@@ -10096,7 +10102,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N94" s="6">
         <v>4607042434877</v>
@@ -10114,14 +10120,14 @@
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC94" s="6" t="s">
         <v>49</v>
@@ -10156,16 +10162,16 @@
         <v>40</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>54</v>
@@ -10177,7 +10183,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N95" s="6">
         <v>4607042434891</v>
@@ -10195,14 +10201,14 @@
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC95" s="6" t="s">
         <v>49</v>
@@ -10237,16 +10243,16 @@
         <v>40</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>54</v>
@@ -10258,7 +10264,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N96" s="6">
         <v>4607042438738</v>
@@ -10276,14 +10282,14 @@
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC96" s="6" t="s">
         <v>49</v>
@@ -10318,16 +10324,16 @@
         <v>40</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>54</v>
@@ -10339,7 +10345,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N97" s="6">
         <v>4607042439155</v>
@@ -10357,14 +10363,14 @@
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC97" s="6" t="s">
         <v>49</v>
@@ -10399,16 +10405,16 @@
         <v>40</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>54</v>
@@ -10420,7 +10426,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N98" s="6">
         <v>4607042439216</v>
@@ -10438,14 +10444,14 @@
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC98" s="6" t="s">
         <v>49</v>
@@ -10484,10 +10490,10 @@
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>41</v>
@@ -10526,7 +10532,7 @@
         <v>503</v>
       </c>
       <c r="AL99" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM99" s="6">
         <v>520</v>
@@ -10546,16 +10552,16 @@
         <v>41</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6">
@@ -10564,27 +10570,27 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
       <c r="W100" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X100" s="6"/>
       <c r="Y100" s="6"/>
@@ -10595,7 +10601,7 @@
         <v>49</v>
       </c>
       <c r="AD100" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE100" s="7">
         <v>1.2500000000000001E-2</v>
@@ -10626,19 +10632,19 @@
         <v>40</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6">
@@ -10651,7 +10657,7 @@
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
@@ -10659,14 +10665,14 @@
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC101" s="6" t="s">
         <v>49</v>
@@ -10705,16 +10711,16 @@
         <v>40</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>54</v>
@@ -10726,10 +10732,10 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
@@ -10744,14 +10750,14 @@
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
       <c r="W102" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X102" s="6"/>
       <c r="Y102" s="6"/>
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
       <c r="AB102" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC102" s="6" t="s">
         <v>49</v>
@@ -10790,10 +10796,10 @@
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>41</v>
@@ -10832,7 +10838,7 @@
         <v>504</v>
       </c>
       <c r="AL103" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM103" s="6">
         <v>520</v>
@@ -10852,16 +10858,16 @@
         <v>41</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="6">
@@ -10870,27 +10876,27 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P104" s="6"/>
       <c r="Q104" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
       <c r="W104" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X104" s="6"/>
       <c r="Y104" s="6"/>
@@ -10901,7 +10907,7 @@
         <v>49</v>
       </c>
       <c r="AD104" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE104" s="7">
         <v>2.75E-2</v>
@@ -10932,19 +10938,19 @@
         <v>40</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6">
@@ -10957,7 +10963,7 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
@@ -10965,14 +10971,14 @@
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
       <c r="W105" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X105" s="6"/>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
       <c r="AB105" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC105" s="6" t="s">
         <v>49</v>
@@ -10994,7 +11000,7 @@
         <v>96</v>
       </c>
       <c r="AL105" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM105" s="6">
         <v>504</v>
@@ -11011,16 +11017,16 @@
         <v>40</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>54</v>
@@ -11032,10 +11038,10 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
@@ -11050,14 +11056,14 @@
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
       <c r="W106" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
       <c r="AB106" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC106" s="6"/>
       <c r="AD106" s="6" t="s">
@@ -11090,16 +11096,16 @@
         <v>40</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>54</v>
@@ -11111,10 +11117,10 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
@@ -11129,14 +11135,14 @@
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
       <c r="W107" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X107" s="6"/>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
       <c r="AB107" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC107" s="6"/>
       <c r="AD107" s="6" t="s">
@@ -11173,10 +11179,10 @@
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>41</v>
@@ -11235,16 +11241,16 @@
         <v>41</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6">
@@ -11253,27 +11259,27 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O109" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P109" s="6"/>
       <c r="Q109" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
       <c r="W109" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
@@ -11284,7 +11290,7 @@
         <v>49</v>
       </c>
       <c r="AD109" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE109" s="7">
         <v>3.5000000000000003E-2</v>
@@ -11319,10 +11325,10 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>41</v>
@@ -11361,7 +11367,7 @@
         <v>301</v>
       </c>
       <c r="AL110" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM110" s="6"/>
     </row>
@@ -11380,10 +11386,10 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>41</v>
@@ -11422,7 +11428,7 @@
         <v>302</v>
       </c>
       <c r="AL111" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM111" s="6">
         <v>301</v>
@@ -11442,16 +11448,16 @@
         <v>41</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6">
@@ -11464,7 +11470,7 @@
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
@@ -11475,7 +11481,7 @@
       <c r="X112" s="6"/>
       <c r="Y112" s="6"/>
       <c r="Z112" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA112" s="6"/>
       <c r="AB112" s="6"/>
@@ -11499,7 +11505,7 @@
         <v>100</v>
       </c>
       <c r="AL112" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM112" s="6">
         <v>302</v>
@@ -11519,13 +11525,13 @@
         <v>41</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>54</v>
@@ -11537,20 +11543,20 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P113" s="6"/>
       <c r="Q113" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
@@ -11560,7 +11566,7 @@
       <c r="X113" s="6"/>
       <c r="Y113" s="6"/>
       <c r="Z113" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA113" s="6"/>
       <c r="AB113" s="6"/>
@@ -11600,16 +11606,16 @@
         <v>41</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6">
@@ -11625,19 +11631,19 @@
         <v>56</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
       <c r="U114" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
       <c r="X114" s="6"/>
       <c r="Y114" s="6"/>
       <c r="Z114" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA114" s="6"/>
       <c r="AB114" s="6"/>
@@ -11677,29 +11683,29 @@
         <v>41</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N115" s="6" t="s">
         <v>55</v>
       </c>
       <c r="O115" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P115" s="6"/>
       <c r="Q115" s="6" t="s">
@@ -11716,7 +11722,7 @@
       <c r="X115" s="6"/>
       <c r="Y115" s="6"/>
       <c r="Z115" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA115" s="6"/>
       <c r="AB115" s="6"/>
@@ -11728,7 +11734,7 @@
       <c r="AF115" s="6"/>
       <c r="AG115" s="6"/>
       <c r="AH115" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI115" s="6"/>
       <c r="AJ115" s="6">
@@ -11753,19 +11759,19 @@
         <v>40</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6">
@@ -11778,7 +11784,7 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
@@ -11789,7 +11795,7 @@
       <c r="X116" s="6"/>
       <c r="Y116" s="6"/>
       <c r="Z116" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA116" s="6"/>
       <c r="AB116" s="6"/>
@@ -11805,10 +11811,10 @@
       <c r="AF116" s="6"/>
       <c r="AG116" s="6"/>
       <c r="AH116" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AI116" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ116" s="6">
         <v>2</v>
@@ -11817,7 +11823,7 @@
         <v>104</v>
       </c>
       <c r="AL116" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM116" s="6">
         <v>302</v>
@@ -11834,16 +11840,16 @@
         <v>40</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>54</v>
@@ -11855,10 +11861,10 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="N117" s="9" t="s">
         <v>401</v>
+      </c>
+      <c r="N117" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
@@ -11876,7 +11882,7 @@
       <c r="X117" s="6"/>
       <c r="Y117" s="6"/>
       <c r="Z117" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA117" s="6"/>
       <c r="AB117" s="6"/>
@@ -11911,16 +11917,16 @@
         <v>40</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>54</v>
@@ -11932,10 +11938,10 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="N118" s="9" t="s">
         <v>405</v>
+      </c>
+      <c r="N118" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
@@ -11953,7 +11959,7 @@
       <c r="X118" s="6"/>
       <c r="Y118" s="6"/>
       <c r="Z118" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA118" s="6"/>
       <c r="AB118" s="6"/>
@@ -11990,16 +11996,16 @@
         <v>40</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>54</v>
@@ -12011,10 +12017,10 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="N119" s="9" t="s">
         <v>409</v>
+      </c>
+      <c r="N119" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
@@ -12032,7 +12038,7 @@
       <c r="X119" s="6"/>
       <c r="Y119" s="6"/>
       <c r="Z119" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA119" s="6"/>
       <c r="AB119" s="6"/>
@@ -12067,16 +12073,16 @@
         <v>40</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>54</v>
@@ -12088,9 +12094,9 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="N120" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="N120" s="10" t="s">
         <v>75</v>
       </c>
       <c r="O120" s="6"/>
@@ -12109,7 +12115,7 @@
       <c r="X120" s="6"/>
       <c r="Y120" s="6"/>
       <c r="Z120" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA120" s="6"/>
       <c r="AB120" s="6"/>
@@ -12149,16 +12155,16 @@
         <v>41</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6">
@@ -12171,7 +12177,7 @@
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
@@ -12182,7 +12188,7 @@
       <c r="X121" s="6"/>
       <c r="Y121" s="6"/>
       <c r="Z121" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA121" s="6"/>
       <c r="AB121" s="6"/>
@@ -12206,7 +12212,7 @@
         <v>109</v>
       </c>
       <c r="AL121" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM121" s="6">
         <v>302</v>
@@ -12226,13 +12232,13 @@
         <v>41</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>54</v>
@@ -12244,20 +12250,20 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O122" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P122" s="6"/>
       <c r="Q122" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R122" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
@@ -12267,7 +12273,7 @@
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
       <c r="Z122" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA122" s="6"/>
       <c r="AB122" s="6"/>
@@ -12307,16 +12313,16 @@
         <v>41</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6">
@@ -12332,19 +12338,19 @@
         <v>56</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
       <c r="X123" s="6"/>
       <c r="Y123" s="6"/>
       <c r="Z123" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA123" s="6"/>
       <c r="AB123" s="6"/>
@@ -12384,29 +12390,29 @@
         <v>41</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N124" s="6" t="s">
         <v>55</v>
       </c>
       <c r="O124" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P124" s="6"/>
       <c r="Q124" s="6" t="s">
@@ -12423,7 +12429,7 @@
       <c r="X124" s="6"/>
       <c r="Y124" s="6"/>
       <c r="Z124" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA124" s="6"/>
       <c r="AB124" s="6"/>
@@ -12437,7 +12443,7 @@
       <c r="AF124" s="6"/>
       <c r="AG124" s="6"/>
       <c r="AH124" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AI124" s="6"/>
       <c r="AJ124" s="6">
@@ -12466,10 +12472,10 @@
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>41</v>
@@ -12528,16 +12534,16 @@
         <v>41</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6">
@@ -12550,7 +12556,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
@@ -12561,7 +12567,7 @@
       <c r="X126" s="6"/>
       <c r="Y126" s="6"/>
       <c r="Z126" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA126" s="6"/>
       <c r="AB126" s="6"/>
@@ -12585,7 +12591,7 @@
         <v>113</v>
       </c>
       <c r="AL126" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM126" s="6">
         <v>303</v>
@@ -12605,13 +12611,13 @@
         <v>41</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>54</v>
@@ -12623,20 +12629,20 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O127" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P127" s="6"/>
       <c r="Q127" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
@@ -12646,7 +12652,7 @@
       <c r="X127" s="6"/>
       <c r="Y127" s="6"/>
       <c r="Z127" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA127" s="6"/>
       <c r="AB127" s="6"/>
@@ -12686,16 +12692,16 @@
         <v>41</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6">
@@ -12711,19 +12717,19 @@
         <v>56</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
       <c r="U128" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
       <c r="X128" s="6"/>
       <c r="Y128" s="6"/>
       <c r="Z128" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA128" s="6"/>
       <c r="AB128" s="6"/>
@@ -12763,16 +12769,16 @@
         <v>41</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6">
@@ -12796,7 +12802,7 @@
       <c r="X129" s="6"/>
       <c r="Y129" s="6"/>
       <c r="Z129" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA129" s="6"/>
       <c r="AB129" s="6"/>
@@ -12818,7 +12824,7 @@
         <v>116</v>
       </c>
       <c r="AL129" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM129" s="6">
         <v>113</v>
@@ -12838,26 +12844,26 @@
         <v>41</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>443</v>
+        <v>585</v>
       </c>
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
@@ -12875,7 +12881,7 @@
       <c r="X130" s="6"/>
       <c r="Y130" s="6"/>
       <c r="Z130" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA130" s="6"/>
       <c r="AB130" s="6"/>
@@ -12917,7 +12923,7 @@
         <v>41</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>445</v>
@@ -12926,7 +12932,7 @@
         <v>446</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -12936,7 +12942,7 @@
         <v>447</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>448</v>
+        <v>586</v>
       </c>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
@@ -12954,7 +12960,7 @@
       <c r="X131" s="6"/>
       <c r="Y131" s="6"/>
       <c r="Z131" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
@@ -12968,7 +12974,7 @@
       <c r="AF131" s="6"/>
       <c r="AG131" s="6"/>
       <c r="AH131" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AI131" s="6"/>
       <c r="AJ131" s="6">
@@ -12997,10 +13003,10 @@
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>451</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>41</v>
@@ -13039,7 +13045,7 @@
         <v>310</v>
       </c>
       <c r="AL132" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM132" s="6"/>
     </row>
@@ -13058,10 +13064,10 @@
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>41</v>
@@ -13120,16 +13126,16 @@
         <v>41</v>
       </c>
       <c r="E134" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F134" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="G134" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G134" s="6" t="s">
+      <c r="H134" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -13140,7 +13146,7 @@
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
@@ -13157,7 +13163,7 @@
         <v>49</v>
       </c>
       <c r="AD134" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE134" s="7">
         <v>0.14000000000000001</v>
@@ -13165,7 +13171,7 @@
       <c r="AF134" s="6"/>
       <c r="AG134" s="6"/>
       <c r="AH134" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AI134" s="6"/>
       <c r="AJ134" s="6">
@@ -13175,7 +13181,7 @@
         <v>119</v>
       </c>
       <c r="AL134" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM134" s="6">
         <v>311</v>
@@ -13195,16 +13201,16 @@
         <v>41</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F135" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="H135" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6">
@@ -13215,23 +13221,23 @@
       </c>
       <c r="L135" s="6"/>
       <c r="M135" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
       <c r="R135" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S135" s="6"/>
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
       <c r="W135" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X135" s="6"/>
       <c r="Y135" s="6"/>
@@ -13274,16 +13280,16 @@
         <v>41</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F136" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="H136" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6">
@@ -13292,23 +13298,23 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
       <c r="R136" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S136" s="6"/>
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
       <c r="W136" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X136" s="6"/>
       <c r="Y136" s="6"/>
@@ -13352,10 +13358,10 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>41</v>
@@ -13394,7 +13400,7 @@
         <v>312</v>
       </c>
       <c r="AL137" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM137" s="6">
         <v>310</v>
@@ -13414,16 +13420,16 @@
         <v>41</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F138" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="G138" s="6" t="s">
-        <v>476</v>
-      </c>
       <c r="H138" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6">
@@ -13437,16 +13443,16 @@
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
       <c r="U138" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V138" s="6"/>
       <c r="W138" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="6"/>
@@ -13465,10 +13471,10 @@
       <c r="AF138" s="6"/>
       <c r="AG138" s="6"/>
       <c r="AH138" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI138" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ138" s="6">
         <v>2</v>
@@ -13495,16 +13501,16 @@
         <v>41</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F139" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G139" s="6" t="s">
+      <c r="H139" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -13515,23 +13521,23 @@
         <v>15</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S139" s="6"/>
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
       <c r="W139" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="6"/>
@@ -13550,10 +13556,10 @@
       <c r="AF139" s="6"/>
       <c r="AG139" s="6"/>
       <c r="AH139" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI139" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ139" s="6">
         <v>2</v>
@@ -13580,13 +13586,13 @@
         <v>41</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F140" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>48</v>
@@ -13600,7 +13606,7 @@
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
@@ -13608,7 +13614,7 @@
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
       <c r="W140" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="6"/>
@@ -13619,7 +13625,7 @@
         <v>49</v>
       </c>
       <c r="AD140" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE140" s="7">
         <v>2.5000000000000001E-2</v>
@@ -13627,10 +13633,10 @@
       <c r="AF140" s="6"/>
       <c r="AG140" s="6"/>
       <c r="AH140" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI140" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ140" s="6">
         <v>2</v>
@@ -13639,7 +13645,7 @@
         <v>124</v>
       </c>
       <c r="AL140" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AM140" s="6">
         <v>312</v>
@@ -13660,13 +13666,13 @@
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="G141" s="6" t="s">
-        <v>487</v>
-      </c>
       <c r="H141" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6">
@@ -13675,30 +13681,30 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="N141" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="N141" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="O141" s="6"/>
       <c r="P141" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
       <c r="W141" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X141" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
@@ -13714,10 +13720,10 @@
       <c r="AF141" s="6"/>
       <c r="AG141" s="6"/>
       <c r="AH141" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI141" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ141" s="6">
         <v>3</v>
@@ -13745,13 +13751,13 @@
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="G142" s="6" t="s">
-        <v>493</v>
-      </c>
       <c r="H142" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="6">
@@ -13760,30 +13766,30 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="N142" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="N142" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="O142" s="6"/>
       <c r="P142" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q142" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R142" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
       <c r="W142" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X142" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
@@ -13799,10 +13805,10 @@
       <c r="AF142" s="6"/>
       <c r="AG142" s="6"/>
       <c r="AH142" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI142" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ142" s="6">
         <v>3</v>
@@ -13830,13 +13836,13 @@
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="G143" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="G143" s="6" t="s">
-        <v>496</v>
-      </c>
       <c r="H143" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6">
@@ -13849,7 +13855,7 @@
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R143" s="6"/>
       <c r="S143" s="6"/>
@@ -13857,7 +13863,7 @@
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
       <c r="W143" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="6"/>
@@ -13874,10 +13880,10 @@
       <c r="AF143" s="6"/>
       <c r="AG143" s="6"/>
       <c r="AH143" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI143" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ143" s="6">
         <v>3</v>
@@ -13886,7 +13892,7 @@
         <v>128</v>
       </c>
       <c r="AL143" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM143" s="6">
         <v>124</v>
@@ -13907,10 +13913,10 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G144" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>54</v>
@@ -13922,34 +13928,34 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="N144" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="N144" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="O144" s="6"/>
       <c r="P144" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R144" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S144" s="6"/>
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
       <c r="W144" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
       <c r="AB144" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC144" s="6" t="s">
         <v>49</v>
@@ -13961,10 +13967,10 @@
       <c r="AF144" s="6"/>
       <c r="AG144" s="6"/>
       <c r="AH144" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI144" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ144" s="6">
         <v>4</v>
@@ -13992,10 +13998,10 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>54</v>
@@ -14007,34 +14013,34 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="N145" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="N145" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="O145" s="6"/>
       <c r="P145" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>56</v>
       </c>
       <c r="R145" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
       <c r="W145" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
       <c r="AB145" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC145" s="6" t="s">
         <v>49</v>
@@ -14046,10 +14052,10 @@
       <c r="AF145" s="6"/>
       <c r="AG145" s="6"/>
       <c r="AH145" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI145" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ145" s="6">
         <v>4</v>
@@ -14077,13 +14083,13 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="G146" s="6" t="s">
+      <c r="H146" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6">
@@ -14092,10 +14098,10 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O146" s="6"/>
       <c r="P146" s="6"/>
@@ -14103,14 +14109,14 @@
         <v>56</v>
       </c>
       <c r="R146" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
       <c r="W146" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="6"/>
@@ -14127,10 +14133,10 @@
       <c r="AF146" s="6"/>
       <c r="AG146" s="6"/>
       <c r="AH146" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI146" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ146" s="6">
         <v>3</v>
@@ -14157,16 +14163,16 @@
         <v>41</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F147" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G147" s="6" t="s">
+      <c r="H147" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
@@ -14174,20 +14180,20 @@
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
       <c r="N147" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
       <c r="R147" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
       <c r="W147" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="6"/>
@@ -14198,7 +14204,7 @@
         <v>49</v>
       </c>
       <c r="AD147" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE147" s="7">
         <v>2.5000000000000001E-2</v>
@@ -14206,10 +14212,10 @@
       <c r="AF147" s="6"/>
       <c r="AG147" s="6"/>
       <c r="AH147" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI147" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ147" s="6">
         <v>2</v>
@@ -14233,19 +14239,19 @@
         <v>40</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F148" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="G148" s="6" t="s">
-        <v>511</v>
-      </c>
       <c r="H148" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6">
@@ -14266,7 +14272,7 @@
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
       <c r="W148" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
@@ -14277,7 +14283,7 @@
         <v>49</v>
       </c>
       <c r="AD148" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE148" s="7">
         <v>0.03</v>
@@ -14310,19 +14316,19 @@
         <v>40</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F149" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="G149" s="6" t="s">
+      <c r="H149" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6">
@@ -14333,10 +14339,10 @@
       </c>
       <c r="L149" s="6"/>
       <c r="M149" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O149" s="6"/>
       <c r="P149" s="6"/>
@@ -14344,14 +14350,14 @@
         <v>56</v>
       </c>
       <c r="R149" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S149" s="6"/>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
       <c r="W149" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
@@ -14362,13 +14368,13 @@
         <v>49</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AE149" s="7"/>
       <c r="AF149" s="6"/>
       <c r="AG149" s="6"/>
       <c r="AH149" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AI149" s="6"/>
       <c r="AJ149" s="6">
@@ -14397,10 +14403,10 @@
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>41</v>
@@ -14454,16 +14460,16 @@
         <v>40</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F151" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>48</v>
@@ -14506,7 +14512,7 @@
         <v>136</v>
       </c>
       <c r="AL151" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM151" s="6">
         <v>400</v>
@@ -14523,19 +14529,19 @@
         <v>40</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F152" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="G152" s="6" t="s">
+      <c r="H152" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6">
@@ -14545,7 +14551,7 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
       <c r="N152" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O152" s="6"/>
       <c r="P152" s="6"/>
@@ -14553,7 +14559,7 @@
         <v>56</v>
       </c>
       <c r="R152" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
@@ -14561,7 +14567,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Y152" s="6"/>
       <c r="Z152" s="6"/>
@@ -14602,19 +14608,19 @@
         <v>40</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E153" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F153" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="G153" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="G153" s="6" t="s">
-        <v>528</v>
-      </c>
       <c r="H153" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6">
@@ -14624,7 +14630,7 @@
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O153" s="6"/>
       <c r="P153" s="6"/>
@@ -14632,7 +14638,7 @@
         <v>56</v>
       </c>
       <c r="R153" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S153" s="6"/>
       <c r="T153" s="6"/>
@@ -14640,7 +14646,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
@@ -14679,19 +14685,19 @@
         <v>40</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F154" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="G154" s="6" t="s">
-        <v>531</v>
-      </c>
       <c r="H154" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6">
@@ -14701,7 +14707,7 @@
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
       <c r="N154" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
@@ -14709,7 +14715,7 @@
         <v>56</v>
       </c>
       <c r="R154" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="6"/>
@@ -14717,7 +14723,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
@@ -14756,19 +14762,19 @@
         <v>40</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F155" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="G155" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="H155" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6">
@@ -14778,7 +14784,7 @@
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
       <c r="N155" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
@@ -14786,7 +14792,7 @@
         <v>56</v>
       </c>
       <c r="R155" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S155" s="6"/>
       <c r="T155" s="6"/>
@@ -14794,7 +14800,7 @@
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
       <c r="X155" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
@@ -14833,22 +14839,22 @@
         <v>40</v>
       </c>
       <c r="D156" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="F156" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="G156" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="G156" s="6" t="s">
+      <c r="H156" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="H156" s="6" t="s">
+      <c r="I156" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
@@ -14859,7 +14865,7 @@
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S156" s="6"/>
       <c r="T156" s="6"/>
@@ -14898,22 +14904,22 @@
         <v>40</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E157" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="G157" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="G157" s="6" t="s">
-        <v>545</v>
-      </c>
       <c r="H157" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I157" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
@@ -14924,7 +14930,7 @@
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S157" s="6"/>
       <c r="T157" s="6"/>
@@ -14948,7 +14954,7 @@
         <v>142</v>
       </c>
       <c r="AL157" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM157" s="6"/>
     </row>
@@ -14963,37 +14969,37 @@
         <v>40</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E158" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F158" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="G158" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="H158" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G158" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="H158" s="6" t="s">
+      <c r="I158" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="N158" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="N158" s="8" t="s">
-        <v>552</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
       <c r="R158" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S158" s="6"/>
       <c r="T158" s="6"/>
@@ -15032,37 +15038,37 @@
         <v>40</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E159" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F159" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="G159" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="H159" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G159" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="H159" s="6" t="s">
+      <c r="I159" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N159" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S159" s="6"/>
       <c r="T159" s="6"/>
@@ -15101,37 +15107,37 @@
         <v>40</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E160" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F160" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="G160" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="H160" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G160" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="H160" s="6" t="s">
+      <c r="I160" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N160" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S160" s="6"/>
       <c r="T160" s="6"/>
@@ -15170,37 +15176,37 @@
         <v>40</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E161" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F161" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="G161" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="H161" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G161" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="H161" s="6" t="s">
+      <c r="I161" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N161" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S161" s="6"/>
       <c r="T161" s="6"/>
@@ -15239,22 +15245,22 @@
         <v>40</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E162" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F162" s="6" t="s">
+      <c r="G162" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="G162" s="6" t="s">
+      <c r="H162" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="H162" s="6" t="s">
+      <c r="I162" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
@@ -15265,7 +15271,7 @@
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S162" s="6"/>
       <c r="T162" s="6"/>
@@ -15289,7 +15295,7 @@
         <v>147</v>
       </c>
       <c r="AL162" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AM162" s="6"/>
     </row>
@@ -15304,22 +15310,22 @@
         <v>40</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E163" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="G163" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="G163" s="6" t="s">
+      <c r="H163" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="H163" s="6" t="s">
-        <v>565</v>
-      </c>
       <c r="I163" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -15330,7 +15336,7 @@
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
@@ -15369,42 +15375,42 @@
         <v>40</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E164" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="G164" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="G164" s="6" t="s">
+      <c r="H164" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="H164" s="6" t="s">
-        <v>569</v>
-      </c>
       <c r="I164" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
       <c r="N164" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S164" s="6"/>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
       <c r="W164" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X164" s="6"/>
       <c r="Y164" s="6"/>
@@ -15436,22 +15442,22 @@
         <v>40</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E165" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="G165" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="G165" s="6" t="s">
+      <c r="H165" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="H165" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="I165" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
@@ -15464,14 +15470,14 @@
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S165" s="6"/>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
       <c r="W165" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="X165" s="6"/>
       <c r="Y165" s="6"/>
@@ -15503,37 +15509,37 @@
         <v>40</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E166" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G166" s="6" t="s">
-        <v>579</v>
-      </c>
       <c r="H166" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="I166" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="N166" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="N166" s="8" t="s">
-        <v>581</v>
       </c>
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S166" s="6"/>
       <c r="T166" s="6"/>
@@ -15572,37 +15578,37 @@
         <v>40</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E167" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G167" s="6" t="s">
-        <v>579</v>
-      </c>
       <c r="H167" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="I167" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="N167" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="N167" s="8" t="s">
-        <v>581</v>
       </c>
       <c r="O167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
       <c r="R167" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S167" s="6"/>
       <c r="T167" s="6"/>
@@ -15641,37 +15647,37 @@
         <v>40</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E168" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="G168" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>579</v>
-      </c>
       <c r="H168" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="I168" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
       <c r="R168" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
@@ -15710,37 +15716,37 @@
         <v>40</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E169" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F169" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="G169" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G169" s="6" t="s">
-        <v>579</v>
-      </c>
       <c r="H169" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="I169" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
       <c r="R169" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S169" s="6"/>
       <c r="T169" s="6"/>
@@ -15764,7 +15770,7 @@
         <v>154</v>
       </c>
       <c r="AL169" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AM169" s="6"/>
     </row>
@@ -15779,20 +15785,20 @@
         <v>40</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="G170" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="H170" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
@@ -15803,7 +15809,7 @@
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
       <c r="R170" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S170" s="6"/>
       <c r="T170" s="6"/>
@@ -15830,7 +15836,7 @@
       <c r="AM170" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM170" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AM1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
